--- a/src/文章列表.xlsx
+++ b/src/文章列表.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="str">
-        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"](polars-学习/"&amp;B2&amp;")"</f>
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [Python-polars学习-01-读取与写入文件](polars-学习/Python-polars学习-01-读取与写入文件.md)</v>
       </c>
     </row>
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"](polars-学习/"&amp;B3&amp;")"</f>
+        <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Python-polars学习-02-上下文与表达式](polars-学习/Python-polars学习-02-上下文与表达式.md)</v>
       </c>
     </row>
@@ -622,8 +622,8 @@
         <v>13</v>
       </c>
       <c r="C2" t="str">
-        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"](polars-学习/"&amp;B2&amp;")"</f>
-        <v>- [Hive---HQL支持的2种查询语句风格，你喜欢哪一种？](polars-学习/Hive---HQL支持的2种查询语句风格，你喜欢哪一种？.md)</v>
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Hive---HQL支持的2种查询语句风格，你喜欢哪一种？](Hive/Hive---HQL支持的2种查询语句风格，你喜欢哪一种？.md)</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -634,8 +634,8 @@
         <v>14</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"](polars-学习/"&amp;B3&amp;")"</f>
-        <v>- [Hive-数据聚合成键值对时，根据值大小进行排序](polars-学习/Hive-数据聚合成键值对时，根据值大小进行排序.md)</v>
+        <f t="shared" ref="C3:C8" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Hive-数据聚合成键值对时，根据值大小进行排序](Hive/Hive-数据聚合成键值对时，根据值大小进行排序.md)</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -647,7 +647,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>- [Hive-中把一行记录拆分为多行记录](polars-学习/Hive-中把一行记录拆分为多行记录.md)</v>
+        <v>- [Hive-中把一行记录拆分为多行记录](Hive/Hive-中把一行记录拆分为多行记录.md)</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>- [Hive中的常用函数](polars-学习/Hive中的常用函数.md)</v>
+        <v>- [Hive中的常用函数](Hive/Hive中的常用函数.md)</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>- [Hive-中的各种常用set设置](polars-学习/Hive-中的各种常用set设置.md)</v>
+        <v>- [Hive-中的各种常用set设置](Hive/Hive-中的各种常用set设置.md)</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>- [Hive中对相邻访问时间进行归并分组](polars-学习/Hive中对相邻访问时间进行归并分组.md)</v>
+        <v>- [Hive中对相邻访问时间进行归并分组](Hive/Hive中对相邻访问时间进行归并分组.md)</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>- [Hive中各种日期格式转换方法总结](polars-学习/Hive中各种日期格式转换方法总结.md)</v>
+        <v>- [Hive中各种日期格式转换方法总结](Hive/Hive中各种日期格式转换方法总结.md)</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C9" si="1">"- ["&amp;LEFT(B9,LEN(B9)-3)&amp;"](polars-学习/"&amp;B9&amp;")"</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/src/文章列表.xlsx
+++ b/src/文章列表.xlsx
@@ -9,11 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="682" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="polars-学习" sheetId="1" r:id="rId1"/>
     <sheet name="Hive" sheetId="3" r:id="rId2"/>
+    <sheet name="EXCEL数据处理-VBA" sheetId="4" r:id="rId3"/>
+    <sheet name="Linux" sheetId="5" r:id="rId4"/>
+    <sheet name="NLP" sheetId="6" r:id="rId5"/>
+    <sheet name="Python基础库" sheetId="7" r:id="rId6"/>
+    <sheet name="Python数据处理" sheetId="8" r:id="rId7"/>
+    <sheet name="Python图像处理" sheetId="9" r:id="rId8"/>
+    <sheet name="数据采集" sheetId="10" r:id="rId9"/>
+    <sheet name="数据分析与挖掘" sheetId="11" r:id="rId10"/>
+    <sheet name="数据可视化" sheetId="12" r:id="rId11"/>
+    <sheet name="数学知识" sheetId="13" r:id="rId12"/>
+    <sheet name="随笔" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="124">
   <si>
     <t>md文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +115,339 @@
   </si>
   <si>
     <t>Hive中各种日期格式转换方法总结.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCEL数据处理-VBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel中的标准差stdev-S和stdev-P区别.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据去重-----VBA字典法.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux-（Centos-7）中-Anaconda环境管理，安装不同的版本Python包.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux之NTFS、FAT32、exFAT-各种格式硬盘挂载整理.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecureCRT利用Python脚本自动登陆服务器，自动验证Google-Authenticator动态验证码.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析师常用的-Linux-命令总结.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Linux服务器上部署Jupyter-notebook.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-除了结巴分词，还有什么好用的中文分词工具？.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python调用apiKey试玩ChatGPT.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然语言处理（NLP）-Bert与Lstm结合.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python基础库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumPy论文都已经登上了Nature，Pythoneer会用了吗？.md</t>
+  </si>
+  <si>
+    <t>Python-math模块详解.md</t>
+  </si>
+  <si>
+    <t>Python-标准库之pathlib，路径操作.md</t>
+  </si>
+  <si>
+    <t>Python-标准库heapq，堆数据结构操作详解.md</t>
+  </si>
+  <si>
+    <t>Python-基于ssh连接远程Mysql数据库.md</t>
+  </si>
+  <si>
+    <t>Python-记录re正则模块，方便后期查找使用.md</t>
+  </si>
+  <si>
+    <t>Python-内建模块-bisect，数组二分查找算法.md</t>
+  </si>
+  <si>
+    <t>Python-扑克牌发牌游戏.md</t>
+  </si>
+  <si>
+    <t>Python-中一个好用的地址解析工具cpca（chinese_province_city_area_mapper）.md</t>
+  </si>
+  <si>
+    <t>Python-字典已经是有序的，你知道吗？.md</t>
+  </si>
+  <si>
+    <t>Python利用partial偏函数，生成不同的聚合函数.md</t>
+  </si>
+  <si>
+    <t>Python内置的-os-模块常用函数、方法.md</t>
+  </si>
+  <si>
+    <t>Python数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比Excel，利用pandas进行数据分析各种用法.md</t>
+  </si>
+  <si>
+    <t>对csv文件，又get了新的认知.md</t>
+  </si>
+  <si>
+    <t>对csv文件，又get了新的认知（二）.md</t>
+  </si>
+  <si>
+    <t>历史双色球数据分析---python.md</t>
+  </si>
+  <si>
+    <t>利用Python计算两个地理位置之间的中点.md</t>
+  </si>
+  <si>
+    <t>利用Python模拟Excel数据透视表具有“值显示方式”功能.md</t>
+  </si>
+  <si>
+    <t>像excel透视表一样使用pandas透视函数.md</t>
+  </si>
+  <si>
+    <t>Numpy中的shuffle和permutation区别.md</t>
+  </si>
+  <si>
+    <t>pandas-错误提醒：FutureWarning--elementwise-comparison-failed;.md</t>
+  </si>
+  <si>
+    <t>Pandas数据处理误区要知其然知其所以然.md</t>
+  </si>
+  <si>
+    <t>Python--Numpy中的范数.md</t>
+  </si>
+  <si>
+    <t>Python-把csv文件转换为excel文件.md</t>
+  </si>
+  <si>
+    <t>Python-常用的加解密算法实例应用.md</t>
+  </si>
+  <si>
+    <t>Python-处理Excel文件为了通用原则，建议用openpyxl库.md</t>
+  </si>
+  <si>
+    <t>Python-多线程，真实使用代码.md</t>
+  </si>
+  <si>
+    <t>Python-基于datetime库的日期时间数据处理.md</t>
+  </si>
+  <si>
+    <t>Python-利用aiohttp异步流式下载文件.md</t>
+  </si>
+  <si>
+    <t>Python-利用Pandas把数据直接导入Mysql.md</t>
+  </si>
+  <si>
+    <t>Python-利用pandas对数据进行特定排序.md</t>
+  </si>
+  <si>
+    <t>Python-两个字典如何实现相加？（相同的键，值相加）.md</t>
+  </si>
+  <si>
+    <t>Python-小知识系列（一）.md</t>
+  </si>
+  <si>
+    <t>Python-字符串格式化方法总结.md</t>
+  </si>
+  <si>
+    <t>Python-jupyter-常用语句汇总.md</t>
+  </si>
+  <si>
+    <t>Python-pandas-2-0-初探.md</t>
+  </si>
+  <si>
+    <t>Python-pandas-里面的数据类型坑，astype要慎用.md</t>
+  </si>
+  <si>
+    <t>Python-pandas-数据筛选与赋值升级版详解.md</t>
+  </si>
+  <si>
+    <t>Python-pandas-数据无法正常分列.md</t>
+  </si>
+  <si>
+    <t>Python-pandas-str-replace-不起作用.md</t>
+  </si>
+  <si>
+    <t>Python-pandas遍历行数据的2种方法.md</t>
+  </si>
+  <si>
+    <t>Python-pandas数据分列，分割符号&amp;固定宽度.md</t>
+  </si>
+  <si>
+    <t>Python-pandas数据计数函数value_counts.md</t>
+  </si>
+  <si>
+    <t>Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题.md</t>
+  </si>
+  <si>
+    <t>Python常用语句汇总.md</t>
+  </si>
+  <si>
+    <t>Python加载txt数据乱码问题升级版解决方法.md</t>
+  </si>
+  <si>
+    <t>Python数据处理中-pd-concat-与-pd-merge-区别.md</t>
+  </si>
+  <si>
+    <t>Python数据预处理中One-Hot编码的方法.md</t>
+  </si>
+  <si>
+    <t>Python通过修改系统注册表，强制设置Excel宏信任级别.md</t>
+  </si>
+  <si>
+    <t>Python用xlwings库处理Excel.md</t>
+  </si>
+  <si>
+    <t>Python中的Lambda匿名函数.md</t>
+  </si>
+  <si>
+    <t>Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？.md</t>
+  </si>
+  <si>
+    <t>Python图像处理</t>
+  </si>
+  <si>
+    <t>利用Python-自己动手制作动漫效果图片.md</t>
+  </si>
+  <si>
+    <t>利用Python对图片进行马赛克处理.md</t>
+  </si>
+  <si>
+    <t>利用Python对图片进行模糊化处理.md</t>
+  </si>
+  <si>
+    <t>Python---opencv一次读取视频里面多张视频帧.md</t>
+  </si>
+  <si>
+    <t>Python-人脸检测方法总结.md</t>
+  </si>
+  <si>
+    <t>Python基于opencv-“三维”旋转图片，解决日常小问题.md</t>
+  </si>
+  <si>
+    <t>数据采集</t>
+  </si>
+  <si>
+    <t>Python-利用协程采集想看的《人世间》下载地址.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-中一个好用的股票开源库akshare.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析与挖掘</t>
+  </si>
+  <si>
+    <t>《精益数据分析》读书分享-----增长引擎说.md</t>
+  </si>
+  <si>
+    <t>不同岗位的数据分析人员，可能使用不同的分析方法.md</t>
+  </si>
+  <si>
+    <t>传统统计分析在Python中的使用.md</t>
+  </si>
+  <si>
+    <t>机器学习-决策树原理-Python.md</t>
+  </si>
+  <si>
+    <t>机器学习算法总结.md</t>
+  </si>
+  <si>
+    <t>机器学习之sklearn-feature_selection-chi2基于卡方，特征筛选详解.md</t>
+  </si>
+  <si>
+    <t>利用熵值法确定指标权重---原理及Python实现.md</t>
+  </si>
+  <si>
+    <t>Python-利用数据分布直方图来确定合适的阈值.md</t>
+  </si>
+  <si>
+    <t>Python-如何确定K-Means聚类的簇数.md</t>
+  </si>
+  <si>
+    <t>数据可视化</t>
+  </si>
+  <si>
+    <t>利用Python+PyEcharts画出《人民日报》各国疫情图.md</t>
+  </si>
+  <si>
+    <t>利用Python画出《人民日报》各国疫情图——南丁格尔玫瑰图.md</t>
+  </si>
+  <si>
+    <t>罗兰贝格图--Python等高线图（平滑处理）.md</t>
+  </si>
+  <si>
+    <t>Matplotlib-自定义函数实现左边柱形图，右边饼图.md</t>
+  </si>
+  <si>
+    <t>Python-基于pyecharts自定义经纬度热力图可视化.md</t>
+  </si>
+  <si>
+    <t>Python-利用Matplotlib制作初中时圆规画的图.md</t>
+  </si>
+  <si>
+    <t>Python文件打包成exe可执行程序.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学知识</t>
+  </si>
+  <si>
+    <t>分类问题中Sigmoid-与-Softmax-区别.md</t>
+  </si>
+  <si>
+    <t>利用Python枚举所有的排列情况.md</t>
+  </si>
+  <si>
+    <t>让ChatGPT回答闰年的计算逻辑.md</t>
+  </si>
+  <si>
+    <t>Python-使用sklearn计算余弦相似度.md</t>
+  </si>
+  <si>
+    <t>Python利用枚举法，解决一道面试算法题.md</t>
+  </si>
+  <si>
+    <t>随笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工欲善其事必先利其器.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴军老师的《计算之魂》部分重点摘要.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +779,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,12 +932,1646 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [《精益数据分析》读书分享-----增长引擎说](数据分析与挖掘/《精益数据分析》读书分享-----增长引擎说.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [不同岗位的数据分析人员，可能使用不同的分析方法](数据分析与挖掘/不同岗位的数据分析人员，可能使用不同的分析方法.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [传统统计分析在Python中的使用](数据分析与挖掘/传统统计分析在Python中的使用.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [机器学习-决策树原理-Python](数据分析与挖掘/机器学习-决策树原理-Python.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>- [机器学习算法总结](数据分析与挖掘/机器学习算法总结.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>- [机器学习之sklearn-feature_selection-chi2基于卡方，特征筛选详解](数据分析与挖掘/机器学习之sklearn-feature_selection-chi2基于卡方，特征筛选详解.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>- [利用熵值法确定指标权重---原理及Python实现](数据分析与挖掘/利用熵值法确定指标权重---原理及Python实现.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用数据分布直方图来确定合适的阈值](数据分析与挖掘/Python-利用数据分布直方图来确定合适的阈值.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-如何确定K-Means聚类的簇数](数据分析与挖掘/Python-如何确定K-Means聚类的簇数.md)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [利用Python+PyEcharts画出《人民日报》各国疫情图](数据可视化/利用Python+PyEcharts画出《人民日报》各国疫情图.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [利用Python画出《人民日报》各国疫情图——南丁格尔玫瑰图](数据可视化/利用Python画出《人民日报》各国疫情图——南丁格尔玫瑰图.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [罗兰贝格图--Python等高线图（平滑处理）](数据可视化/罗兰贝格图--Python等高线图（平滑处理）.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Matplotlib-自定义函数实现左边柱形图，右边饼图](数据可视化/Matplotlib-自定义函数实现左边柱形图，右边饼图.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于pyecharts自定义经纬度热力图可视化](数据可视化/Python-基于pyecharts自定义经纬度热力图可视化.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用Matplotlib制作初中时圆规画的图](数据可视化/Python-利用Matplotlib制作初中时圆规画的图.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [分类问题中Sigmoid-与-Softmax-区别](数学知识/分类问题中Sigmoid-与-Softmax-区别.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [利用Python枚举所有的排列情况](数学知识/利用Python枚举所有的排列情况.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [让ChatGPT回答闰年的计算逻辑](数学知识/让ChatGPT回答闰年的计算逻辑.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-使用sklearn计算余弦相似度](数学知识/Python-使用sklearn计算余弦相似度.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python利用枚举法，解决一道面试算法题](数学知识/Python利用枚举法，解决一道面试算法题.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [工欲善其事必先利其器](随笔/工欲善其事必先利其器.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [吴军老师的《计算之魂》部分重点摘要](随笔/吴军老师的《计算之魂》部分重点摘要.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Hive-数据聚合成键值对时，根据值大小进行排序](Hive/Hive-数据聚合成键值对时，根据值大小进行排序.md)</v>
       </c>
     </row>
@@ -703,7 +2681,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="e">
-        <f t="shared" ref="C3:C9" si="1">"- ["&amp;LEFT(B9,LEN(B9)-3)&amp;"](polars-学习/"&amp;B9&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -735,6 +2713,1955 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Excel中的标准差stdev-S和stdev-P区别](EXCEL数据处理-VBA/Excel中的标准差stdev-S和stdev-P区别.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [数据去重-----VBA字典法](EXCEL数据处理-VBA/数据去重-----VBA字典法.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Linux-（Centos-7）中-Anaconda环境管理，安装不同的版本Python包](Linux/Linux-（Centos-7）中-Anaconda环境管理，安装不同的版本Python包.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Linux之NTFS、FAT32、exFAT-各种格式硬盘挂载整理](Linux/Linux之NTFS、FAT32、exFAT-各种格式硬盘挂载整理.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [SecureCRT利用Python脚本自动登陆服务器，自动验证Google-Authenticator动态验证码](Linux/SecureCRT利用Python脚本自动登陆服务器，自动验证Google-Authenticator动态验证码.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [数据分析师常用的-Linux-命令总结](Linux/数据分析师常用的-Linux-命令总结.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>- [在Linux服务器上部署Jupyter-notebook](Linux/在Linux服务器上部署Jupyter-notebook.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Python-除了结巴分词，还有什么好用的中文分词工具？](NLP/Python-除了结巴分词，还有什么好用的中文分词工具？.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Python调用apiKey试玩ChatGPT](NLP/Python调用apiKey试玩ChatGPT.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [自然语言处理（NLP）-Bert与Lstm结合](NLP/自然语言处理（NLP）-Bert与Lstm结合.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [NumPy论文都已经登上了Nature，Pythoneer会用了吗？](Python基础库/NumPy论文都已经登上了Nature，Pythoneer会用了吗？.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C15" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Python-标准库之pathlib，路径操作](Python基础库/Python-标准库之pathlib，路径操作.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-标准库heapq，堆数据结构操作详解](Python基础库/Python-标准库heapq，堆数据结构操作详解.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于ssh连接远程Mysql数据库](Python基础库/Python-基于ssh连接远程Mysql数据库.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-记录re正则模块，方便后期查找使用](Python基础库/Python-记录re正则模块，方便后期查找使用.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-内建模块-bisect，数组二分查找算法](Python基础库/Python-内建模块-bisect，数组二分查找算法.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-扑克牌发牌游戏](Python基础库/Python-扑克牌发牌游戏.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-中一个好用的地址解析工具cpca（chinese_province_city_area_mapper）](Python基础库/Python-中一个好用的地址解析工具cpca（chinese_province_city_area_mapper）.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-字典已经是有序的，你知道吗？](Python基础库/Python-字典已经是有序的，你知道吗？.md)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-math模块详解](Python基础库/Python-math模块详解.md)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python利用partial偏函数，生成不同的聚合函数](Python基础库/Python利用partial偏函数，生成不同的聚合函数.md)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python内置的-os-模块常用函数、方法](Python基础库/Python内置的-os-模块常用函数、方法.md)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python文件打包成exe可执行程序](Python基础库/Python文件打包成exe可执行程序.md)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [对比Excel，利用pandas进行数据分析各种用法](Python数据处理/对比Excel，利用pandas进行数据分析各种用法.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [对csv文件，又get了新的认知](Python数据处理/对csv文件，又get了新的认知.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [对csv文件，又get了新的认知（二）](Python数据处理/对csv文件，又get了新的认知（二）.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [历史双色球数据分析---python](Python数据处理/历史双色球数据分析---python.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>- [利用Python计算两个地理位置之间的中点](Python数据处理/利用Python计算两个地理位置之间的中点.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>- [利用Python模拟Excel数据透视表具有“值显示方式”功能](Python数据处理/利用Python模拟Excel数据透视表具有“值显示方式”功能.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>- [像excel透视表一样使用pandas透视函数](Python数据处理/像excel透视表一样使用pandas透视函数.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Numpy中的shuffle和permutation区别](Python数据处理/Numpy中的shuffle和permutation区别.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>- [pandas-错误提醒：FutureWarning--elementwise-comparison-failed;](Python数据处理/pandas-错误提醒：FutureWarning--elementwise-comparison-failed;.md)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Pandas数据处理误区要知其然知其所以然](Python数据处理/Pandas数据处理误区要知其然知其所以然.md)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python--Numpy中的范数](Python数据处理/Python--Numpy中的范数.md)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-把csv文件转换为excel文件](Python数据处理/Python-把csv文件转换为excel文件.md)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-常用的加解密算法实例应用](Python数据处理/Python-常用的加解密算法实例应用.md)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-处理Excel文件为了通用原则，建议用openpyxl库](Python数据处理/Python-处理Excel文件为了通用原则，建议用openpyxl库.md)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-多线程，真实使用代码](Python数据处理/Python-多线程，真实使用代码.md)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于datetime库的日期时间数据处理](Python数据处理/Python-基于datetime库的日期时间数据处理.md)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用aiohttp异步流式下载文件](Python数据处理/Python-利用aiohttp异步流式下载文件.md)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用Pandas把数据直接导入Mysql](Python数据处理/Python-利用Pandas把数据直接导入Mysql.md)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用pandas对数据进行特定排序](Python数据处理/Python-利用pandas对数据进行特定排序.md)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-两个字典如何实现相加？（相同的键，值相加）](Python数据处理/Python-两个字典如何实现相加？（相同的键，值相加）.md)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-小知识系列（一）](Python数据处理/Python-小知识系列（一）.md)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-字符串格式化方法总结](Python数据处理/Python-字符串格式化方法总结.md)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-jupyter-常用语句汇总](Python数据处理/Python-jupyter-常用语句汇总.md)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-2-0-初探](Python数据处理/Python-pandas-2-0-初探.md)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-里面的数据类型坑，astype要慎用](Python数据处理/Python-pandas-里面的数据类型坑，astype要慎用.md)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-数据筛选与赋值升级版详解](Python数据处理/Python-pandas-数据筛选与赋值升级版详解.md)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-数据无法正常分列](Python数据处理/Python-pandas-数据无法正常分列.md)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-str-replace-不起作用](Python数据处理/Python-pandas-str-replace-不起作用.md)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas遍历行数据的2种方法](Python数据处理/Python-pandas遍历行数据的2种方法.md)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas数据分列，分割符号&amp;固定宽度](Python数据处理/Python-pandas数据分列，分割符号&amp;固定宽度.md)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas数据计数函数value_counts](Python数据处理/Python-pandas数据计数函数value_counts.md)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题](Python数据处理/Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题.md)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python常用语句汇总](Python数据处理/Python常用语句汇总.md)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python加载txt数据乱码问题升级版解决方法](Python数据处理/Python加载txt数据乱码问题升级版解决方法.md)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python数据处理中-pd-concat-与-pd-merge-区别](Python数据处理/Python数据处理中-pd-concat-与-pd-merge-区别.md)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python数据预处理中One-Hot编码的方法](Python数据处理/Python数据预处理中One-Hot编码的方法.md)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python通过修改系统注册表，强制设置Excel宏信任级别](Python数据处理/Python通过修改系统注册表，强制设置Excel宏信任级别.md)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python用xlwings库处理Excel](Python数据处理/Python用xlwings库处理Excel.md)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python中的Lambda匿名函数](Python数据处理/Python中的Lambda匿名函数.md)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？](Python数据处理/Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？.md)</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [利用Python-自己动手制作动漫效果图片](Python图像处理/利用Python-自己动手制作动漫效果图片.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [利用Python对图片进行马赛克处理](Python图像处理/利用Python对图片进行马赛克处理.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [利用Python对图片进行模糊化处理](Python图像处理/利用Python对图片进行模糊化处理.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python---opencv一次读取视频里面多张视频帧](Python图像处理/Python---opencv一次读取视频里面多张视频帧.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-人脸检测方法总结](Python图像处理/Python-人脸检测方法总结.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python基于opencv-“三维”旋转图片，解决日常小问题](Python图像处理/Python基于opencv-“三维”旋转图片，解决日常小问题.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Python-利用协程采集想看的《人世间》下载地址](数据采集/Python-利用协程采集想看的《人世间》下载地址.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Python-中一个好用的股票开源库akshare](数据采集/Python-中一个好用的股票开源库akshare.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/src/文章列表.xlsx
+++ b/src/文章列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="682" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="682"/>
   </bookViews>
   <sheets>
     <sheet name="polars-学习" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="126">
   <si>
     <t>md文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,38 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python-polars学习-01-读取与写入文件.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python-polars学习-02-上下文与表达式.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>polars学习-03-数据类型转换.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python-polars学习-04-字符串数据处理.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python-polars学习-05-包含的数据结构.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python-polars学习-06-Lazy---Eager-API.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python-polars学习-07-缺失值.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python-polars学习-08-分类数据处理.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,6 +416,45 @@
   </si>
   <si>
     <t>吴军老师的《计算之魂》部分重点摘要.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python_polars学习-01_读取与写入文件.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python_polars学习-02_上下文与表达式.md</t>
+  </si>
+  <si>
+    <t>Python_polars学习-03_数据类型转换.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python_polars学习-04_字符串数据处理.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python_polars学习-05_包含的数据结构.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python_polars学习-06_Lazy-Eager-API.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python_polars学习-07_缺失值.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python_polars学习-08_分类数据处理.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python_polars学习-09_数据框关联与拼接.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +472,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -492,9 +507,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,25 +796,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -805,11 +823,11 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
-        <v>- [Python-polars学习-01-读取与写入文件](polars-学习/Python-polars学习-01-读取与写入文件.md)</v>
+        <v>- [Python_polars学习-01_读取与写入文件](polars-学习/Python_polars学习-01_读取与写入文件.md)</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,11 +835,11 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
-        <v>- [Python-polars学习-02-上下文与表达式](polars-学习/Python-polars学习-02-上下文与表达式.md)</v>
+        <f>"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Python_polars学习-02_上下文与表达式](polars-学习/Python_polars学习-02_上下文与表达式.md)</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -829,11 +847,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>- [polars学习-03-数据类型转换](polars-学习/polars学习-03-数据类型转换.md)</v>
+        <f>"- ["&amp;LEFT(B4,LEN(B4)-3)&amp;"]("&amp;A4&amp;"/"&amp;B4&amp;")"</f>
+        <v>- [Python_polars学习-03_数据类型转换](polars-学习/Python_polars学习-03_数据类型转换.md)</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,11 +859,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-polars学习-04-字符串数据处理](polars-学习/Python-polars学习-04-字符串数据处理.md)</v>
+        <f>"- ["&amp;LEFT(B5,LEN(B5)-3)&amp;"]("&amp;A5&amp;"/"&amp;B5&amp;")"</f>
+        <v>- [Python_polars学习-04_字符串数据处理](polars-学习/Python_polars学习-04_字符串数据处理.md)</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -853,11 +871,11 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-polars学习-05-包含的数据结构](polars-学习/Python-polars学习-05-包含的数据结构.md)</v>
+        <f>"- ["&amp;LEFT(B6,LEN(B6)-3)&amp;"]("&amp;A6&amp;"/"&amp;B6&amp;")"</f>
+        <v>- [Python_polars学习-05_包含的数据结构](polars-学习/Python_polars学习-05_包含的数据结构.md)</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -865,11 +883,11 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-polars学习-06-Lazy---Eager-API](polars-学习/Python-polars学习-06-Lazy---Eager-API.md)</v>
+        <f>"- ["&amp;LEFT(B7,LEN(B7)-3)&amp;"]("&amp;A7&amp;"/"&amp;B7&amp;")"</f>
+        <v>- [Python_polars学习-06_Lazy-Eager-API](polars-学习/Python_polars学习-06_Lazy-Eager-API.md)</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,11 +895,11 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-polars学习-07-缺失值](polars-学习/Python-polars学习-07-缺失值.md)</v>
+        <f>"- ["&amp;LEFT(B8,LEN(B8)-3)&amp;"]("&amp;A8&amp;"/"&amp;B8&amp;")"</f>
+        <v>- [Python_polars学习-07_缺失值](polars-学习/Python_polars学习-07_缺失值.md)</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,41 +907,68 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-polars学习-08-分类数据处理](polars-学习/Python-polars学习-08-分类数据处理.md)</v>
+        <f>"- ["&amp;LEFT(B9,LEN(B9)-3)&amp;"]("&amp;A9&amp;"/"&amp;B9&amp;")"</f>
+        <v>- [Python_polars学习-08_分类数据处理](polars-学习/Python_polars学习-08_分类数据处理.md)</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"- ["&amp;LEFT(B10,LEN(B10)-3)&amp;"]("&amp;A10&amp;"/"&amp;B10&amp;")"</f>
+        <v>- [Python_polars学习-09_数据框关联与拼接](polars-学习/Python_polars学习-09_数据框关联与拼接.md)</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
+      <c r="C11" t="e">
+        <f>"- ["&amp;LEFT(B11,LEN(B11)-3)&amp;"]("&amp;A11&amp;"/"&amp;B11&amp;")"</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
+      <c r="C12" t="e">
+        <f>"- ["&amp;LEFT(B12,LEN(B12)-3)&amp;"]("&amp;A12&amp;"/"&amp;B12&amp;")"</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
+      <c r="C13" t="e">
+        <f>"- ["&amp;LEFT(B13,LEN(B13)-3)&amp;"]("&amp;A13&amp;"/"&amp;B13&amp;")"</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
+      <c r="C14" t="e">
+        <f>"- ["&amp;LEFT(B14,LEN(B14)-3)&amp;"]("&amp;A14&amp;"/"&amp;B14&amp;")"</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
+      </c>
+      <c r="C15" t="e">
+        <f>"- ["&amp;LEFT(B15,LEN(B15)-3)&amp;"]("&amp;A15&amp;"/"&amp;B15&amp;")"</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -960,10 +1005,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -972,10 +1017,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -984,10 +1029,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -996,10 +1041,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1008,10 +1053,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1020,10 +1065,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1032,10 +1077,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1044,10 +1089,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1056,10 +1101,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1068,7 +1113,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C11" t="e">
         <f t="shared" si="0"/>
@@ -1077,7 +1122,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C12" t="e">
         <f t="shared" si="0"/>
@@ -1086,7 +1131,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C13" t="e">
         <f t="shared" si="0"/>
@@ -1095,7 +1140,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C14" t="e">
         <f t="shared" si="0"/>
@@ -1104,7 +1149,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="0"/>
@@ -1113,7 +1158,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="0"/>
@@ -1122,7 +1167,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C17" t="e">
         <f t="shared" si="0"/>
@@ -1131,7 +1176,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C18" t="e">
         <f t="shared" si="0"/>
@@ -1140,7 +1185,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C19" t="e">
         <f t="shared" si="0"/>
@@ -1149,7 +1194,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C20" t="e">
         <f t="shared" si="0"/>
@@ -1158,7 +1203,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C21" t="e">
         <f t="shared" si="0"/>
@@ -1167,7 +1212,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C22" t="e">
         <f t="shared" si="0"/>
@@ -1176,7 +1221,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C23" t="e">
         <f t="shared" si="0"/>
@@ -1185,7 +1230,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C24" t="e">
         <f t="shared" si="0"/>
@@ -1194,7 +1239,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C25" t="e">
         <f t="shared" si="0"/>
@@ -1203,7 +1248,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C26" t="e">
         <f t="shared" si="0"/>
@@ -1212,7 +1257,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C27" t="e">
         <f t="shared" si="0"/>
@@ -1221,7 +1266,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C28" t="e">
         <f t="shared" si="0"/>
@@ -1230,7 +1275,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C29" t="e">
         <f t="shared" si="0"/>
@@ -1239,7 +1284,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C30" t="e">
         <f t="shared" si="0"/>
@@ -1248,7 +1293,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C31" t="e">
         <f t="shared" si="0"/>
@@ -1257,7 +1302,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C32" t="e">
         <f t="shared" si="0"/>
@@ -1266,7 +1311,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C33" t="e">
         <f t="shared" si="0"/>
@@ -1275,7 +1320,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C34" t="e">
         <f t="shared" si="0"/>
@@ -1284,7 +1329,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C35" t="e">
         <f t="shared" si="0"/>
@@ -1293,7 +1338,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C36" t="e">
         <f t="shared" si="0"/>
@@ -1302,7 +1347,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C37" t="e">
         <f t="shared" si="0"/>
@@ -1311,7 +1356,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C38" t="e">
         <f t="shared" si="0"/>
@@ -1320,7 +1365,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C39" t="e">
         <f t="shared" si="0"/>
@@ -1329,7 +1374,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C40" t="e">
         <f t="shared" si="0"/>
@@ -1338,7 +1383,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C41" t="e">
         <f t="shared" si="0"/>
@@ -1379,10 +1424,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -1391,10 +1436,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -1403,10 +1448,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1415,10 +1460,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1427,10 +1472,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1439,10 +1484,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1451,7 +1496,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C8" t="e">
         <f t="shared" si="0"/>
@@ -1460,7 +1505,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -1469,7 +1514,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C10" t="e">
         <f t="shared" si="0"/>
@@ -1478,7 +1523,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C11" t="e">
         <f t="shared" si="0"/>
@@ -1487,7 +1532,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C12" t="e">
         <f t="shared" si="0"/>
@@ -1496,7 +1541,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C13" t="e">
         <f t="shared" si="0"/>
@@ -1505,7 +1550,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C14" t="e">
         <f t="shared" si="0"/>
@@ -1514,7 +1559,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="0"/>
@@ -1523,7 +1568,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="0"/>
@@ -1532,7 +1577,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C17" t="e">
         <f t="shared" si="0"/>
@@ -1541,7 +1586,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C18" t="e">
         <f t="shared" si="0"/>
@@ -1550,7 +1595,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C19" t="e">
         <f t="shared" si="0"/>
@@ -1559,7 +1604,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C20" t="e">
         <f t="shared" si="0"/>
@@ -1568,7 +1613,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C21" t="e">
         <f t="shared" si="0"/>
@@ -1577,7 +1622,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C22" t="e">
         <f t="shared" si="0"/>
@@ -1586,7 +1631,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C23" t="e">
         <f t="shared" si="0"/>
@@ -1595,7 +1640,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C24" t="e">
         <f t="shared" si="0"/>
@@ -1604,7 +1649,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C25" t="e">
         <f t="shared" si="0"/>
@@ -1613,7 +1658,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C26" t="e">
         <f t="shared" si="0"/>
@@ -1622,7 +1667,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C27" t="e">
         <f t="shared" si="0"/>
@@ -1631,7 +1676,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C28" t="e">
         <f t="shared" si="0"/>
@@ -1640,7 +1685,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C29" t="e">
         <f t="shared" si="0"/>
@@ -1649,7 +1694,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C30" t="e">
         <f t="shared" si="0"/>
@@ -1658,7 +1703,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C31" t="e">
         <f t="shared" si="0"/>
@@ -1667,7 +1712,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C32" t="e">
         <f t="shared" si="0"/>
@@ -1676,7 +1721,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C33" t="e">
         <f t="shared" si="0"/>
@@ -1685,7 +1730,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C34" t="e">
         <f t="shared" si="0"/>
@@ -1694,7 +1739,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C35" t="e">
         <f t="shared" si="0"/>
@@ -1703,7 +1748,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C36" t="e">
         <f t="shared" si="0"/>
@@ -1712,7 +1757,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C37" t="e">
         <f t="shared" si="0"/>
@@ -1721,7 +1766,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C38" t="e">
         <f t="shared" si="0"/>
@@ -1730,7 +1775,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C39" t="e">
         <f t="shared" si="0"/>
@@ -1739,7 +1784,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C40" t="e">
         <f t="shared" si="0"/>
@@ -1748,7 +1793,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C41" t="e">
         <f t="shared" si="0"/>
@@ -1789,10 +1834,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -1801,10 +1846,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -1813,10 +1858,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1825,10 +1870,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1837,10 +1882,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1849,7 +1894,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C7" t="e">
         <f t="shared" si="0"/>
@@ -1858,7 +1903,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C8" t="e">
         <f t="shared" si="0"/>
@@ -1867,7 +1912,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -1876,7 +1921,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C10" t="e">
         <f t="shared" si="0"/>
@@ -1885,7 +1930,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C11" t="e">
         <f t="shared" si="0"/>
@@ -1894,7 +1939,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C12" t="e">
         <f t="shared" si="0"/>
@@ -1903,7 +1948,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C13" t="e">
         <f t="shared" si="0"/>
@@ -1912,7 +1957,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C14" t="e">
         <f t="shared" si="0"/>
@@ -1921,7 +1966,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="0"/>
@@ -1930,7 +1975,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="0"/>
@@ -1939,7 +1984,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C17" t="e">
         <f t="shared" si="0"/>
@@ -1948,7 +1993,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C18" t="e">
         <f t="shared" si="0"/>
@@ -1957,7 +2002,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C19" t="e">
         <f t="shared" si="0"/>
@@ -1966,7 +2011,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C20" t="e">
         <f t="shared" si="0"/>
@@ -1975,7 +2020,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C21" t="e">
         <f t="shared" si="0"/>
@@ -1984,7 +2029,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C22" t="e">
         <f t="shared" si="0"/>
@@ -1993,7 +2038,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C23" t="e">
         <f t="shared" si="0"/>
@@ -2002,7 +2047,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C24" t="e">
         <f t="shared" si="0"/>
@@ -2011,7 +2056,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C25" t="e">
         <f t="shared" si="0"/>
@@ -2020,7 +2065,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C26" t="e">
         <f t="shared" si="0"/>
@@ -2029,7 +2074,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C27" t="e">
         <f t="shared" si="0"/>
@@ -2038,7 +2083,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C28" t="e">
         <f t="shared" si="0"/>
@@ -2047,7 +2092,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C29" t="e">
         <f t="shared" si="0"/>
@@ -2056,7 +2101,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C30" t="e">
         <f t="shared" si="0"/>
@@ -2065,7 +2110,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C31" t="e">
         <f t="shared" si="0"/>
@@ -2074,7 +2119,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C32" t="e">
         <f t="shared" si="0"/>
@@ -2083,7 +2128,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C33" t="e">
         <f t="shared" si="0"/>
@@ -2092,7 +2137,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C34" t="e">
         <f t="shared" si="0"/>
@@ -2101,7 +2146,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C35" t="e">
         <f t="shared" si="0"/>
@@ -2110,7 +2155,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C36" t="e">
         <f t="shared" si="0"/>
@@ -2119,7 +2164,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C37" t="e">
         <f t="shared" si="0"/>
@@ -2128,7 +2173,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C38" t="e">
         <f t="shared" si="0"/>
@@ -2137,7 +2182,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C39" t="e">
         <f t="shared" si="0"/>
@@ -2146,7 +2191,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C40" t="e">
         <f t="shared" si="0"/>
@@ -2155,7 +2200,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C41" t="e">
         <f t="shared" si="0"/>
@@ -2172,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2196,10 +2241,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -2208,10 +2253,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -2220,7 +2265,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C4" t="e">
         <f t="shared" si="0"/>
@@ -2229,7 +2274,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C5" t="e">
         <f t="shared" si="0"/>
@@ -2238,7 +2283,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C6" t="e">
         <f t="shared" si="0"/>
@@ -2247,7 +2292,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C7" t="e">
         <f t="shared" si="0"/>
@@ -2256,7 +2301,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C8" t="e">
         <f t="shared" si="0"/>
@@ -2265,7 +2310,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -2274,7 +2319,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C10" t="e">
         <f t="shared" si="0"/>
@@ -2283,7 +2328,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C11" t="e">
         <f t="shared" si="0"/>
@@ -2292,7 +2337,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C12" t="e">
         <f t="shared" si="0"/>
@@ -2301,7 +2346,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C13" t="e">
         <f t="shared" si="0"/>
@@ -2310,7 +2355,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C14" t="e">
         <f t="shared" si="0"/>
@@ -2319,7 +2364,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="0"/>
@@ -2328,7 +2373,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="0"/>
@@ -2337,7 +2382,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C17" t="e">
         <f t="shared" si="0"/>
@@ -2346,7 +2391,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C18" t="e">
         <f t="shared" si="0"/>
@@ -2355,7 +2400,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C19" t="e">
         <f t="shared" si="0"/>
@@ -2364,7 +2409,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C20" t="e">
         <f t="shared" si="0"/>
@@ -2373,7 +2418,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C21" t="e">
         <f t="shared" si="0"/>
@@ -2382,7 +2427,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C22" t="e">
         <f t="shared" si="0"/>
@@ -2391,7 +2436,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C23" t="e">
         <f t="shared" si="0"/>
@@ -2400,7 +2445,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C24" t="e">
         <f t="shared" si="0"/>
@@ -2409,7 +2454,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C25" t="e">
         <f t="shared" si="0"/>
@@ -2418,7 +2463,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C26" t="e">
         <f t="shared" si="0"/>
@@ -2427,7 +2472,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C27" t="e">
         <f t="shared" si="0"/>
@@ -2436,7 +2481,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C28" t="e">
         <f t="shared" si="0"/>
@@ -2445,7 +2490,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C29" t="e">
         <f t="shared" si="0"/>
@@ -2454,7 +2499,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C30" t="e">
         <f t="shared" si="0"/>
@@ -2463,7 +2508,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C31" t="e">
         <f t="shared" si="0"/>
@@ -2472,7 +2517,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C32" t="e">
         <f t="shared" si="0"/>
@@ -2481,7 +2526,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C33" t="e">
         <f t="shared" si="0"/>
@@ -2490,7 +2535,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C34" t="e">
         <f t="shared" si="0"/>
@@ -2499,7 +2544,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C35" t="e">
         <f t="shared" si="0"/>
@@ -2508,7 +2553,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C36" t="e">
         <f t="shared" si="0"/>
@@ -2517,7 +2562,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C37" t="e">
         <f t="shared" si="0"/>
@@ -2526,7 +2571,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C38" t="e">
         <f t="shared" si="0"/>
@@ -2535,7 +2580,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C39" t="e">
         <f t="shared" si="0"/>
@@ -2544,7 +2589,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C40" t="e">
         <f t="shared" si="0"/>
@@ -2553,7 +2598,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C41" t="e">
         <f t="shared" si="0"/>
@@ -2594,10 +2639,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -2606,10 +2651,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -2618,10 +2663,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2630,10 +2675,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2642,10 +2687,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2654,10 +2699,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2666,10 +2711,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -2678,7 +2723,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -2687,32 +2732,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2749,10 +2794,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -2761,10 +2806,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -2773,7 +2818,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" t="e">
         <f t="shared" si="0"/>
@@ -2782,7 +2827,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="e">
         <f t="shared" si="0"/>
@@ -2791,7 +2836,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" t="e">
         <f t="shared" si="0"/>
@@ -2800,7 +2845,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" t="e">
         <f t="shared" si="0"/>
@@ -2809,7 +2854,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" t="e">
         <f t="shared" si="0"/>
@@ -2818,7 +2863,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -2827,32 +2872,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2889,10 +2934,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -2901,10 +2946,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -2913,10 +2958,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2925,10 +2970,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2937,10 +2982,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2949,7 +2994,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C7" t="e">
         <f t="shared" si="0"/>
@@ -2958,7 +3003,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" t="e">
         <f t="shared" si="0"/>
@@ -2967,7 +3012,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -2976,32 +3021,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3038,10 +3083,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -3050,10 +3095,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -3062,10 +3107,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3074,7 +3119,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" t="e">
         <f t="shared" si="0"/>
@@ -3083,7 +3128,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" t="e">
         <f t="shared" si="0"/>
@@ -3092,7 +3137,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C7" t="e">
         <f t="shared" si="0"/>
@@ -3101,7 +3146,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" t="e">
         <f t="shared" si="0"/>
@@ -3110,7 +3155,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -3119,32 +3164,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3181,10 +3226,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -3193,10 +3238,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C15" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -3205,10 +3250,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3217,10 +3262,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3229,10 +3274,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3241,10 +3286,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3253,10 +3298,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3265,10 +3310,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3277,10 +3322,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3289,10 +3334,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3301,10 +3346,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3313,10 +3358,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -3325,10 +3370,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3337,7 +3382,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="0"/>
@@ -3378,10 +3423,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -3390,10 +3435,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -3402,10 +3447,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3414,10 +3459,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3426,10 +3471,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3438,10 +3483,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3450,10 +3495,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3462,10 +3507,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3474,10 +3519,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3486,10 +3531,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3498,10 +3543,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3510,10 +3555,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -3522,10 +3567,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3534,10 +3579,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -3546,10 +3591,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3558,10 +3603,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3570,10 +3615,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3582,10 +3627,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -3594,10 +3639,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -3606,10 +3651,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -3618,10 +3663,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -3630,10 +3675,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -3642,10 +3687,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -3654,10 +3699,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -3666,10 +3711,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -3678,10 +3723,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -3690,10 +3735,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -3702,10 +3747,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -3714,10 +3759,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -3726,10 +3771,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -3738,10 +3783,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -3750,10 +3795,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -3762,10 +3807,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -3774,10 +3819,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -3786,10 +3831,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -3798,10 +3843,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -3810,10 +3855,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -3822,10 +3867,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -3834,10 +3879,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -3846,10 +3891,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -3890,10 +3935,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -3902,10 +3947,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -3914,10 +3959,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3926,10 +3971,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3938,10 +3983,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3950,10 +3995,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3962,7 +4007,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C8" t="e">
         <f t="shared" si="0"/>
@@ -3971,7 +4016,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -3980,7 +4025,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C10" t="e">
         <f t="shared" si="0"/>
@@ -3989,7 +4034,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C11" t="e">
         <f t="shared" si="0"/>
@@ -3998,7 +4043,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C12" t="e">
         <f t="shared" si="0"/>
@@ -4007,7 +4052,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C13" t="e">
         <f t="shared" si="0"/>
@@ -4016,7 +4061,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C14" t="e">
         <f t="shared" si="0"/>
@@ -4025,7 +4070,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="0"/>
@@ -4034,7 +4079,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="0"/>
@@ -4043,7 +4088,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C17" t="e">
         <f t="shared" si="0"/>
@@ -4052,7 +4097,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C18" t="e">
         <f t="shared" si="0"/>
@@ -4061,7 +4106,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C19" t="e">
         <f t="shared" si="0"/>
@@ -4070,7 +4115,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C20" t="e">
         <f t="shared" si="0"/>
@@ -4079,7 +4124,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C21" t="e">
         <f t="shared" si="0"/>
@@ -4088,7 +4133,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C22" t="e">
         <f t="shared" si="0"/>
@@ -4097,7 +4142,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C23" t="e">
         <f t="shared" si="0"/>
@@ -4106,7 +4151,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C24" t="e">
         <f t="shared" si="0"/>
@@ -4115,7 +4160,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C25" t="e">
         <f t="shared" si="0"/>
@@ -4124,7 +4169,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C26" t="e">
         <f t="shared" si="0"/>
@@ -4133,7 +4178,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C27" t="e">
         <f t="shared" si="0"/>
@@ -4142,7 +4187,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C28" t="e">
         <f t="shared" si="0"/>
@@ -4151,7 +4196,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C29" t="e">
         <f t="shared" si="0"/>
@@ -4160,7 +4205,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C30" t="e">
         <f t="shared" si="0"/>
@@ -4169,7 +4214,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C31" t="e">
         <f t="shared" si="0"/>
@@ -4178,7 +4223,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C32" t="e">
         <f t="shared" si="0"/>
@@ -4187,7 +4232,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C33" t="e">
         <f t="shared" si="0"/>
@@ -4196,7 +4241,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C34" t="e">
         <f t="shared" si="0"/>
@@ -4205,7 +4250,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C35" t="e">
         <f t="shared" si="0"/>
@@ -4214,7 +4259,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C36" t="e">
         <f t="shared" si="0"/>
@@ -4223,7 +4268,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C37" t="e">
         <f t="shared" si="0"/>
@@ -4232,7 +4277,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C38" t="e">
         <f t="shared" si="0"/>
@@ -4241,7 +4286,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C39" t="e">
         <f t="shared" si="0"/>
@@ -4250,7 +4295,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C40" t="e">
         <f t="shared" si="0"/>
@@ -4259,7 +4304,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C41" t="e">
         <f t="shared" si="0"/>
@@ -4300,10 +4345,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C2" t="str">
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
@@ -4312,10 +4357,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
@@ -4324,7 +4369,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C4" t="e">
         <f t="shared" si="0"/>
@@ -4333,7 +4378,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C5" t="e">
         <f t="shared" si="0"/>
@@ -4342,7 +4387,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C6" t="e">
         <f t="shared" si="0"/>
@@ -4351,7 +4396,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C7" t="e">
         <f t="shared" si="0"/>
@@ -4360,7 +4405,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C8" t="e">
         <f t="shared" si="0"/>
@@ -4369,7 +4414,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -4378,7 +4423,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C10" t="e">
         <f t="shared" si="0"/>
@@ -4387,7 +4432,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C11" t="e">
         <f t="shared" si="0"/>
@@ -4396,7 +4441,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C12" t="e">
         <f t="shared" si="0"/>
@@ -4405,7 +4450,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C13" t="e">
         <f t="shared" si="0"/>
@@ -4414,7 +4459,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C14" t="e">
         <f t="shared" si="0"/>
@@ -4423,7 +4468,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="0"/>
@@ -4432,7 +4477,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="0"/>
@@ -4441,7 +4486,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C17" t="e">
         <f t="shared" si="0"/>
@@ -4450,7 +4495,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C18" t="e">
         <f t="shared" si="0"/>
@@ -4459,7 +4504,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C19" t="e">
         <f t="shared" si="0"/>
@@ -4468,7 +4513,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C20" t="e">
         <f t="shared" si="0"/>
@@ -4477,7 +4522,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C21" t="e">
         <f t="shared" si="0"/>
@@ -4486,7 +4531,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C22" t="e">
         <f t="shared" si="0"/>
@@ -4495,7 +4540,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C23" t="e">
         <f t="shared" si="0"/>
@@ -4504,7 +4549,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C24" t="e">
         <f t="shared" si="0"/>
@@ -4513,7 +4558,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C25" t="e">
         <f t="shared" si="0"/>
@@ -4522,7 +4567,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C26" t="e">
         <f t="shared" si="0"/>
@@ -4531,7 +4576,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C27" t="e">
         <f t="shared" si="0"/>
@@ -4540,7 +4585,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C28" t="e">
         <f t="shared" si="0"/>
@@ -4549,7 +4594,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C29" t="e">
         <f t="shared" si="0"/>
@@ -4558,7 +4603,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C30" t="e">
         <f t="shared" si="0"/>
@@ -4567,7 +4612,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C31" t="e">
         <f t="shared" si="0"/>
@@ -4576,7 +4621,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C32" t="e">
         <f t="shared" si="0"/>
@@ -4585,7 +4630,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C33" t="e">
         <f t="shared" si="0"/>
@@ -4594,7 +4639,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C34" t="e">
         <f t="shared" si="0"/>
@@ -4603,7 +4648,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C35" t="e">
         <f t="shared" si="0"/>
@@ -4612,7 +4657,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C36" t="e">
         <f t="shared" si="0"/>
@@ -4621,7 +4666,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C37" t="e">
         <f t="shared" si="0"/>
@@ -4630,7 +4675,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C38" t="e">
         <f t="shared" si="0"/>
@@ -4639,7 +4684,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C39" t="e">
         <f t="shared" si="0"/>
@@ -4648,7 +4693,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C40" t="e">
         <f t="shared" si="0"/>
@@ -4657,7 +4702,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C41" t="e">
         <f t="shared" si="0"/>

--- a/src/文章列表.xlsx
+++ b/src/文章列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="682"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="682" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="polars-学习" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="数据可视化" sheetId="12" r:id="rId11"/>
     <sheet name="数学知识" sheetId="13" r:id="rId12"/>
     <sheet name="随笔" sheetId="14" r:id="rId13"/>
+    <sheet name="clickehouse" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="139">
   <si>
     <t>md文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +456,58 @@
   </si>
   <si>
     <t>Python_polars学习-09_数据框关联与拼接.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clickhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clickhouse-读取存储在hdfs的hive表数据.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clickhouse-基础使用教程.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clickhouse中创建生成日期序列自定义函数.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop-常用命令总结.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于DeepSeek，构建个人本地RAG知识库.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-polars学习-11-用户自定义函数.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-polars学习-10-时间序列类型.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-利用4行代码实现图片灰度化.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-利用聚类算法对图片进行颜色压缩.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-微信头像添加国旗.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-一个在本地给图片添加水印的小工具.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Python生成手绘效果的图片.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,15 +849,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" customWidth="1"/>
+    <col min="3" max="3" width="92.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
@@ -826,7 +879,7 @@
         <v>117</v>
       </c>
       <c r="C2" t="str">
-        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <f t="shared" ref="C2:C15" si="0">"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [Python_polars学习-01_读取与写入文件](polars-学习/Python_polars学习-01_读取与写入文件.md)</v>
       </c>
     </row>
@@ -838,7 +891,7 @@
         <v>118</v>
       </c>
       <c r="C3" t="str">
-        <f>"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>- [Python_polars学习-02_上下文与表达式](polars-学习/Python_polars学习-02_上下文与表达式.md)</v>
       </c>
     </row>
@@ -850,7 +903,7 @@
         <v>119</v>
       </c>
       <c r="C4" t="str">
-        <f>"- ["&amp;LEFT(B4,LEN(B4)-3)&amp;"]("&amp;A4&amp;"/"&amp;B4&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>- [Python_polars学习-03_数据类型转换](polars-学习/Python_polars学习-03_数据类型转换.md)</v>
       </c>
     </row>
@@ -862,7 +915,7 @@
         <v>120</v>
       </c>
       <c r="C5" t="str">
-        <f>"- ["&amp;LEFT(B5,LEN(B5)-3)&amp;"]("&amp;A5&amp;"/"&amp;B5&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>- [Python_polars学习-04_字符串数据处理](polars-学习/Python_polars学习-04_字符串数据处理.md)</v>
       </c>
     </row>
@@ -874,7 +927,7 @@
         <v>121</v>
       </c>
       <c r="C6" t="str">
-        <f>"- ["&amp;LEFT(B6,LEN(B6)-3)&amp;"]("&amp;A6&amp;"/"&amp;B6&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>- [Python_polars学习-05_包含的数据结构](polars-学习/Python_polars学习-05_包含的数据结构.md)</v>
       </c>
     </row>
@@ -886,7 +939,7 @@
         <v>122</v>
       </c>
       <c r="C7" t="str">
-        <f>"- ["&amp;LEFT(B7,LEN(B7)-3)&amp;"]("&amp;A7&amp;"/"&amp;B7&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>- [Python_polars学习-06_Lazy-Eager-API](polars-学习/Python_polars学习-06_Lazy-Eager-API.md)</v>
       </c>
     </row>
@@ -898,7 +951,7 @@
         <v>123</v>
       </c>
       <c r="C8" t="str">
-        <f>"- ["&amp;LEFT(B8,LEN(B8)-3)&amp;"]("&amp;A8&amp;"/"&amp;B8&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>- [Python_polars学习-07_缺失值](polars-学习/Python_polars学习-07_缺失值.md)</v>
       </c>
     </row>
@@ -910,7 +963,7 @@
         <v>124</v>
       </c>
       <c r="C9" t="str">
-        <f>"- ["&amp;LEFT(B9,LEN(B9)-3)&amp;"]("&amp;A9&amp;"/"&amp;B9&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>- [Python_polars学习-08_分类数据处理](polars-学习/Python_polars学习-08_分类数据处理.md)</v>
       </c>
     </row>
@@ -922,7 +975,7 @@
         <v>125</v>
       </c>
       <c r="C10" t="str">
-        <f>"- ["&amp;LEFT(B10,LEN(B10)-3)&amp;"]("&amp;A10&amp;"/"&amp;B10&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>- [Python_polars学习-09_数据框关联与拼接](polars-学习/Python_polars学习-09_数据框关联与拼接.md)</v>
       </c>
     </row>
@@ -930,18 +983,24 @@
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="e">
-        <f>"- ["&amp;LEFT(B11,LEN(B11)-3)&amp;"]("&amp;A11&amp;"/"&amp;B11&amp;")"</f>
-        <v>#VALUE!</v>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-polars学习-10-时间序列类型](polars-学习/Python-polars学习-10-时间序列类型.md)</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="e">
-        <f>"- ["&amp;LEFT(B12,LEN(B12)-3)&amp;"]("&amp;A12&amp;"/"&amp;B12&amp;")"</f>
-        <v>#VALUE!</v>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-polars学习-11-用户自定义函数](polars-学习/Python-polars学习-11-用户自定义函数.md)</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -949,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="e">
-        <f>"- ["&amp;LEFT(B13,LEN(B13)-3)&amp;"]("&amp;A13&amp;"/"&amp;B13&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -958,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="e">
-        <f>"- ["&amp;LEFT(B14,LEN(B14)-3)&amp;"]("&amp;A14&amp;"/"&amp;B14&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -967,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="e">
-        <f>"- ["&amp;LEFT(B15,LEN(B15)-3)&amp;"]("&amp;A15&amp;"/"&amp;B15&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2218,7 +2277,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2611,12 +2670,269 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Clickhouse-读取存储在hdfs的hive表数据](Clickhouse/Clickhouse-读取存储在hdfs的hive表数据.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C25" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Clickhouse-基础使用教程](Clickhouse/Clickhouse-基础使用教程.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Clickhouse中创建生成日期序列自定义函数](Clickhouse/Clickhouse中创建生成日期序列自定义函数.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2725,9 +3041,12 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>- [hadoop-常用命令总结](Hive/hadoop-常用命令总结.md)</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3060,7 +3379,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3121,9 +3440,12 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [基于DeepSeek，构建个人本地RAG知识库](NLP/基于DeepSeek，构建个人本地RAG知识库.md)</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3399,8 +3721,521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="3" max="3" width="80.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [对比Excel，利用pandas进行数据分析各种用法](Python数据处理/对比Excel，利用pandas进行数据分析各种用法.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [对csv文件，又get了新的认知](Python数据处理/对csv文件，又get了新的认知.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [对csv文件，又get了新的认知（二）](Python数据处理/对csv文件，又get了新的认知（二）.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [历史双色球数据分析---python](Python数据处理/历史双色球数据分析---python.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>- [利用Python计算两个地理位置之间的中点](Python数据处理/利用Python计算两个地理位置之间的中点.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>- [利用Python模拟Excel数据透视表具有“值显示方式”功能](Python数据处理/利用Python模拟Excel数据透视表具有“值显示方式”功能.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>- [像excel透视表一样使用pandas透视函数](Python数据处理/像excel透视表一样使用pandas透视函数.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Numpy中的shuffle和permutation区别](Python数据处理/Numpy中的shuffle和permutation区别.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>- [pandas-错误提醒：FutureWarning--elementwise-comparison-failed;](Python数据处理/pandas-错误提醒：FutureWarning--elementwise-comparison-failed;.md)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Pandas数据处理误区要知其然知其所以然](Python数据处理/Pandas数据处理误区要知其然知其所以然.md)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python--Numpy中的范数](Python数据处理/Python--Numpy中的范数.md)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-把csv文件转换为excel文件](Python数据处理/Python-把csv文件转换为excel文件.md)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-常用的加解密算法实例应用](Python数据处理/Python-常用的加解密算法实例应用.md)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-处理Excel文件为了通用原则，建议用openpyxl库](Python数据处理/Python-处理Excel文件为了通用原则，建议用openpyxl库.md)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-多线程，真实使用代码](Python数据处理/Python-多线程，真实使用代码.md)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于datetime库的日期时间数据处理](Python数据处理/Python-基于datetime库的日期时间数据处理.md)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用aiohttp异步流式下载文件](Python数据处理/Python-利用aiohttp异步流式下载文件.md)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用Pandas把数据直接导入Mysql](Python数据处理/Python-利用Pandas把数据直接导入Mysql.md)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用pandas对数据进行特定排序](Python数据处理/Python-利用pandas对数据进行特定排序.md)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-两个字典如何实现相加？（相同的键，值相加）](Python数据处理/Python-两个字典如何实现相加？（相同的键，值相加）.md)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-小知识系列（一）](Python数据处理/Python-小知识系列（一）.md)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-字符串格式化方法总结](Python数据处理/Python-字符串格式化方法总结.md)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-jupyter-常用语句汇总](Python数据处理/Python-jupyter-常用语句汇总.md)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-2-0-初探](Python数据处理/Python-pandas-2-0-初探.md)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-里面的数据类型坑，astype要慎用](Python数据处理/Python-pandas-里面的数据类型坑，astype要慎用.md)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-数据筛选与赋值升级版详解](Python数据处理/Python-pandas-数据筛选与赋值升级版详解.md)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-数据无法正常分列](Python数据处理/Python-pandas-数据无法正常分列.md)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas-str-replace-不起作用](Python数据处理/Python-pandas-str-replace-不起作用.md)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas遍历行数据的2种方法](Python数据处理/Python-pandas遍历行数据的2种方法.md)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas数据分列，分割符号&amp;固定宽度](Python数据处理/Python-pandas数据分列，分割符号&amp;固定宽度.md)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas数据计数函数value_counts](Python数据处理/Python-pandas数据计数函数value_counts.md)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题](Python数据处理/Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题.md)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python常用语句汇总](Python数据处理/Python常用语句汇总.md)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python加载txt数据乱码问题升级版解决方法](Python数据处理/Python加载txt数据乱码问题升级版解决方法.md)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python数据处理中-pd-concat-与-pd-merge-区别](Python数据处理/Python数据处理中-pd-concat-与-pd-merge-区别.md)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python数据预处理中One-Hot编码的方法](Python数据处理/Python数据预处理中One-Hot编码的方法.md)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python通过修改系统注册表，强制设置Excel宏信任级别](Python数据处理/Python通过修改系统注册表，强制设置Excel宏信任级别.md)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python用xlwings库处理Excel](Python数据处理/Python用xlwings库处理Excel.md)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python中的Lambda匿名函数](Python数据处理/Python中的Lambda匿名函数.md)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？](Python数据处理/Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？.md)</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3423,518 +4258,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
-        <v>- [对比Excel，利用pandas进行数据分析各种用法](Python数据处理/对比Excel，利用pandas进行数据分析各种用法.md)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
-        <v>- [对csv文件，又get了新的认知](Python数据处理/对csv文件，又get了新的认知.md)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>- [对csv文件，又get了新的认知（二）](Python数据处理/对csv文件，又get了新的认知（二）.md)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>- [历史双色球数据分析---python](Python数据处理/历史双色球数据分析---python.md)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>- [利用Python计算两个地理位置之间的中点](Python数据处理/利用Python计算两个地理位置之间的中点.md)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>- [利用Python模拟Excel数据透视表具有“值显示方式”功能](Python数据处理/利用Python模拟Excel数据透视表具有“值显示方式”功能.md)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>- [像excel透视表一样使用pandas透视函数](Python数据处理/像excel透视表一样使用pandas透视函数.md)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Numpy中的shuffle和permutation区别](Python数据处理/Numpy中的shuffle和permutation区别.md)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>- [pandas-错误提醒：FutureWarning--elementwise-comparison-failed;](Python数据处理/pandas-错误提醒：FutureWarning--elementwise-comparison-failed;.md)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Pandas数据处理误区要知其然知其所以然](Python数据处理/Pandas数据处理误区要知其然知其所以然.md)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python--Numpy中的范数](Python数据处理/Python--Numpy中的范数.md)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-把csv文件转换为excel文件](Python数据处理/Python-把csv文件转换为excel文件.md)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-常用的加解密算法实例应用](Python数据处理/Python-常用的加解密算法实例应用.md)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-处理Excel文件为了通用原则，建议用openpyxl库](Python数据处理/Python-处理Excel文件为了通用原则，建议用openpyxl库.md)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-多线程，真实使用代码](Python数据处理/Python-多线程，真实使用代码.md)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-基于datetime库的日期时间数据处理](Python数据处理/Python-基于datetime库的日期时间数据处理.md)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-利用aiohttp异步流式下载文件](Python数据处理/Python-利用aiohttp异步流式下载文件.md)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-利用Pandas把数据直接导入Mysql](Python数据处理/Python-利用Pandas把数据直接导入Mysql.md)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-利用pandas对数据进行特定排序](Python数据处理/Python-利用pandas对数据进行特定排序.md)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-两个字典如何实现相加？（相同的键，值相加）](Python数据处理/Python-两个字典如何实现相加？（相同的键，值相加）.md)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-小知识系列（一）](Python数据处理/Python-小知识系列（一）.md)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-字符串格式化方法总结](Python数据处理/Python-字符串格式化方法总结.md)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-jupyter-常用语句汇总](Python数据处理/Python-jupyter-常用语句汇总.md)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-pandas-2-0-初探](Python数据处理/Python-pandas-2-0-初探.md)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-pandas-里面的数据类型坑，astype要慎用](Python数据处理/Python-pandas-里面的数据类型坑，astype要慎用.md)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-pandas-数据筛选与赋值升级版详解](Python数据处理/Python-pandas-数据筛选与赋值升级版详解.md)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-pandas-数据无法正常分列](Python数据处理/Python-pandas-数据无法正常分列.md)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-pandas-str-replace-不起作用](Python数据处理/Python-pandas-str-replace-不起作用.md)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-pandas遍历行数据的2种方法](Python数据处理/Python-pandas遍历行数据的2种方法.md)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-pandas数据分列，分割符号&amp;固定宽度](Python数据处理/Python-pandas数据分列，分割符号&amp;固定宽度.md)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-pandas数据计数函数value_counts](Python数据处理/Python-pandas数据计数函数value_counts.md)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题](Python数据处理/Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题.md)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python常用语句汇总](Python数据处理/Python常用语句汇总.md)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python加载txt数据乱码问题升级版解决方法](Python数据处理/Python加载txt数据乱码问题升级版解决方法.md)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python数据处理中-pd-concat-与-pd-merge-区别](Python数据处理/Python数据处理中-pd-concat-与-pd-merge-区别.md)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python数据预处理中One-Hot编码的方法](Python数据处理/Python数据预处理中One-Hot编码的方法.md)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python通过修改系统注册表，强制设置Excel宏信任级别](Python数据处理/Python通过修改系统注册表，强制设置Excel宏信任级别.md)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python用xlwings库处理Excel](Python数据处理/Python用xlwings库处理Excel.md)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Python中的Lambda匿名函数](Python数据处理/Python中的Lambda匿名函数.md)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>- [Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？](Python数据处理/Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？.md)</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>79</v>
       </c>
       <c r="B2" t="s">
@@ -4009,45 +4332,60 @@
       <c r="A8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用4行代码实现图片灰度化](Python图像处理/Python-利用4行代码实现图片灰度化.md)</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用聚类算法对图片进行颜色压缩](Python图像处理/Python-利用聚类算法对图片进行颜色压缩.md)</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-微信头像添加国旗](Python图像处理/Python-微信头像添加国旗.md)</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-一个在本地给图片添加水印的小工具](Python图像处理/Python-一个在本地给图片添加水印的小工具.md)</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>- [利用Python生成手绘效果的图片](Python图像处理/利用Python生成手绘效果的图片.md)</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">

--- a/src/文章列表.xlsx
+++ b/src/文章列表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\个人\datashare.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\个人\datashare\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="682" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="916" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="polars-学习" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="数学知识" sheetId="13" r:id="rId12"/>
     <sheet name="随笔" sheetId="14" r:id="rId13"/>
     <sheet name="clickehouse" sheetId="15" r:id="rId14"/>
+    <sheet name="Web" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="152">
   <si>
     <t>md文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +509,57 @@
   </si>
   <si>
     <t>利用Python生成手绘效果的图片.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Python-编程从新手到高手》知识点.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-单实例模式详解.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python函数参数：列表作为默认值，一个隐藏的陷阱！.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-函数参数类型与使用规则详解.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-利用协程整合IPTV直播源.md</t>
+  </si>
+  <si>
+    <t>Rust-是否会重写-Python-解释器与有关的库，替代-C-语言地位？.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从互联网+，到DeepSeek+，新一轮的技术变革.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python中一个构建-web-页面的神奇库-streamlit.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-基于Matplotlib制作动态图.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-基于plotly库快速画旭日图.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-基于plotly库快速绘制时间线图.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理的精髓.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1460,7 +1512,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1557,27 +1609,36 @@
       <c r="A8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于Matplotlib制作动态图](数据可视化/Python-基于Matplotlib制作动态图.md)</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于plotly库快速画旭日图](数据可视化/Python-基于plotly库快速画旭日图.md)</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
-      <c r="C10" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于plotly库快速绘制时间线图](数据可视化/Python-基于plotly库快速绘制时间线图.md)</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2276,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2335,18 +2396,24 @@
       <c r="A5" t="s">
         <v>113</v>
       </c>
-      <c r="C5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>- [从互联网+，到DeepSeek+，新一轮的技术变革](随笔/从互联网+，到DeepSeek+，新一轮的技术变革.md)</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
-      <c r="C6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>- [管理的精髓](随笔/管理的精髓.md)</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2675,7 +2742,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2917,6 +2984,176 @@
         <v>126</v>
       </c>
       <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Python中一个构建-web-页面的神奇库-streamlit](Web/Python中一个构建-web-页面的神奇库-streamlit.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="e">
+        <f t="shared" ref="C3:C16" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
@@ -3522,16 +3759,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3566,7 +3803,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C15" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <f t="shared" ref="C3:C27" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Python-标准库之pathlib，路径操作](Python基础库/Python-标准库之pathlib，路径操作.md)</v>
       </c>
     </row>
@@ -3709,6 +3946,134 @@
       <c r="C15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>- [《Python-编程从新手到高手》知识点](Python基础库/《Python-编程从新手到高手》知识点.md)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-单实例模式详解](Python基础库/Python-单实例模式详解.md)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python函数参数：列表作为默认值，一个隐藏的陷阱！](Python基础库/Python函数参数：列表作为默认值，一个隐藏的陷阱！.md)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-函数参数类型与使用规则详解](Python基础库/Python-函数参数类型与使用规则详解.md)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Rust-是否会重写-Python-解释器与有关的库，替代-C-语言地位？](Python基础库/Rust-是否会重写-Python-解释器与有关的库，替代-C-语言地位？.md)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4234,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4660,7 +5025,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4709,9 +5074,12 @@
       <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用协程整合IPTV直播源](数据采集/Python-利用协程整合IPTV直播源.md)</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/src/文章列表.xlsx
+++ b/src/文章列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="916" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="916" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="polars-学习" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="随笔" sheetId="14" r:id="rId13"/>
     <sheet name="clickehouse" sheetId="15" r:id="rId14"/>
     <sheet name="Web" sheetId="16" r:id="rId15"/>
+    <sheet name="大模型相关" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="165">
   <si>
     <t>md文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +561,58 @@
   </si>
   <si>
     <t>管理的精髓.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大模型相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试-gemini-cli，在本地开发俄罗斯方块.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-3-14-无GIL解释器性能测试：释放多核CPU的并行潜力.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Python实现二维码自由.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-2个好用的装饰器函数.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-collections详解：解锁高效数据结构.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-标准库之pathlib（二），路径操作.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-基于协程的端口扫描工具.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-利用-uv-“一键”-快速部署服务.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-迈向强类型化的优雅转变.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-项目管理新思路：用-uv-Workspace-共享虚拟环境，省时省空间！.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-新晋包项目工具uv的简单尝试.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-在指定文件夹安装三方库，并进行加载使用.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2337,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2999,7 +3052,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3152,6 +3205,176 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>146</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [尝试-gemini-cli，在本地开发俄罗斯方块](大模型相关/尝试-gemini-cli，在本地开发俄罗斯方块.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="e">
+        <f t="shared" ref="C3:C16" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>152</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="0"/>
@@ -3759,10 +3982,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3803,7 +4026,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C27" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <f t="shared" ref="C3:C38" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Python-标准库之pathlib，路径操作](Python基础库/Python-标准库之pathlib，路径操作.md)</v>
       </c>
     </row>
@@ -4012,9 +4235,12 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-3-14-无GIL解释器性能测试：释放多核CPU的并行潜力](Python基础库/Python-3-14-无GIL解释器性能测试：释放多核CPU的并行潜力.md)</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4030,50 +4256,171 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-2个好用的装饰器函数](Python基础库/Python-2个好用的装饰器函数.md)</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-collections详解：解锁高效数据结构](Python基础库/Python-collections详解：解锁高效数据结构.md)</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-标准库之pathlib（二），路径操作](Python基础库/Python-标准库之pathlib（二），路径操作.md)</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于协程的端口扫描工具](Python基础库/Python-基于协程的端口扫描工具.md)</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-利用-uv-“一键”-快速部署服务](Python基础库/Python-利用-uv-“一键”-快速部署服务.md)</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-迈向强类型化的优雅转变](Python基础库/Python-迈向强类型化的优雅转变.md)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-项目管理新思路：用-uv-Workspace-共享虚拟环境，省时省空间！](Python基础库/Python-项目管理新思路：用-uv-Workspace-共享虚拟环境，省时省空间！.md)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-新晋包项目工具uv的简单尝试](Python基础库/Python-新晋包项目工具uv的简单尝试.md)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-在指定文件夹安装三方库，并进行加载使用](Python基础库/Python-在指定文件夹安装三方库，并进行加载使用.md)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -4600,7 +4947,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4766,9 +5113,12 @@
       <c r="A14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>- [利用Python实现二维码自由](Python图像处理/利用Python实现二维码自由.md)</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">

--- a/src/文章列表.xlsx
+++ b/src/文章列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="916" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="916" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="polars-学习" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="173">
   <si>
     <t>md文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,6 +613,37 @@
   </si>
   <si>
     <t>Python-在指定文件夹安装三方库，并进行加载使用.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-Pandas导出Excel时保留URL为纯文本的完美方案.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-基于hdfs路径统计hive表存储信息.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-基于OpenList接口下载夸克网盘资源.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-基于pyhive库操作hive.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-小知识系列-2.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史相关文章</t>
+  </si>
+  <si>
+    <t>历史相关文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python-pandas中重排列与列重名.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,20 +1174,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
+    <col min="4" max="4" width="106.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1166,8 +1198,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -1178,8 +1213,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [《精益数据分析》读书分享-----增长引擎说](数据分析与挖掘/《精益数据分析》读书分享-----增长引擎说.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [《精益数据分析》读书分享-----增长引擎说](/数据分析与挖掘/《精益数据分析》读书分享-----增长引擎说.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1190,8 +1229,12 @@
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [不同岗位的数据分析人员，可能使用不同的分析方法](数据分析与挖掘/不同岗位的数据分析人员，可能使用不同的分析方法.md)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [不同岗位的数据分析人员，可能使用不同的分析方法](/数据分析与挖掘/不同岗位的数据分析人员，可能使用不同的分析方法.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1202,8 +1245,12 @@
         <f t="shared" si="0"/>
         <v>- [传统统计分析在Python中的使用](数据分析与挖掘/传统统计分析在Python中的使用.md)</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [传统统计分析在Python中的使用](/数据分析与挖掘/传统统计分析在Python中的使用.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -1214,8 +1261,12 @@
         <f t="shared" si="0"/>
         <v>- [机器学习-决策树原理-Python](数据分析与挖掘/机器学习-决策树原理-Python.md)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [机器学习-决策树原理-Python](/数据分析与挖掘/机器学习-决策树原理-Python.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1227,7 +1278,7 @@
         <v>- [机器学习算法总结](数据分析与挖掘/机器学习算法总结.md)</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1239,7 +1290,7 @@
         <v>- [机器学习之sklearn-feature_selection-chi2基于卡方，特征筛选详解](数据分析与挖掘/机器学习之sklearn-feature_selection-chi2基于卡方，特征筛选详解.md)</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1251,7 +1302,7 @@
         <v>- [利用熵值法确定指标权重---原理及Python实现](数据分析与挖掘/利用熵值法确定指标权重---原理及Python实现.md)</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1263,7 +1314,7 @@
         <v>- [Python-利用数据分布直方图来确定合适的阈值](数据分析与挖掘/Python-利用数据分布直方图来确定合适的阈值.md)</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1275,7 +1326,7 @@
         <v>- [Python-如何确定K-Means聚类的簇数](数据分析与挖掘/Python-如何确定K-Means聚类的簇数.md)</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -1284,7 +1335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1293,7 +1344,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1302,7 +1353,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -1311,7 +1362,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1320,7 +1371,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -1562,31 +1613,35 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1597,8 +1652,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [利用Python+PyEcharts画出《人民日报》各国疫情图](数据可视化/利用Python+PyEcharts画出《人民日报》各国疫情图.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [利用Python+PyEcharts画出《人民日报》各国疫情图](/数据可视化/利用Python+PyEcharts画出《人民日报》各国疫情图.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1609,8 +1668,12 @@
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [利用Python画出《人民日报》各国疫情图——南丁格尔玫瑰图](数据可视化/利用Python画出《人民日报》各国疫情图——南丁格尔玫瑰图.md)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D41" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [利用Python画出《人民日报》各国疫情图——南丁格尔玫瑰图](/数据可视化/利用Python画出《人民日报》各国疫情图——南丁格尔玫瑰图.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1621,8 +1684,12 @@
         <f t="shared" si="0"/>
         <v>- [罗兰贝格图--Python等高线图（平滑处理）](数据可视化/罗兰贝格图--Python等高线图（平滑处理）.md)</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [罗兰贝格图--Python等高线图（平滑处理）](/数据可视化/罗兰贝格图--Python等高线图（平滑处理）.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -1633,8 +1700,12 @@
         <f t="shared" si="0"/>
         <v>- [Matplotlib-自定义函数实现左边柱形图，右边饼图](数据可视化/Matplotlib-自定义函数实现左边柱形图，右边饼图.md)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Matplotlib-自定义函数实现左边柱形图，右边饼图](/数据可视化/Matplotlib-自定义函数实现左边柱形图，右边饼图.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1645,8 +1716,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-基于pyecharts自定义经纬度热力图可视化](数据可视化/Python-基于pyecharts自定义经纬度热力图可视化.md)</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于pyecharts自定义经纬度热力图可视化](/数据可视化/Python-基于pyecharts自定义经纬度热力图可视化.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -1657,8 +1732,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-利用Matplotlib制作初中时圆规画的图](数据可视化/Python-利用Matplotlib制作初中时圆规画的图.md)</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-利用Matplotlib制作初中时圆规画的图](/数据可视化/Python-利用Matplotlib制作初中时圆规画的图.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -1669,8 +1748,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-基于Matplotlib制作动态图](数据可视化/Python-基于Matplotlib制作动态图.md)</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于Matplotlib制作动态图](/数据可视化/Python-基于Matplotlib制作动态图.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -1681,8 +1764,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-基于plotly库快速画旭日图](数据可视化/Python-基于plotly库快速画旭日图.md)</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于plotly库快速画旭日图](/数据可视化/Python-基于plotly库快速画旭日图.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1693,8 +1780,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-基于plotly库快速绘制时间线图](数据可视化/Python-基于plotly库快速绘制时间线图.md)</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于plotly库快速绘制时间线图](/数据可视化/Python-基于plotly库快速绘制时间线图.md)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -1702,8 +1793,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -1711,8 +1806,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -1720,8 +1819,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1729,8 +1832,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -1738,8 +1845,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -1747,8 +1858,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -1756,8 +1871,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1765,8 +1884,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -1774,8 +1897,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -1783,8 +1910,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -1792,8 +1923,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -1801,8 +1936,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -1810,8 +1949,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -1819,8 +1962,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -1828,8 +1975,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -1837,8 +1988,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1846,8 +2001,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -1855,8 +2014,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1864,8 +2027,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -1873,8 +2040,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -1882,8 +2053,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -1891,8 +2066,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -1900,8 +2079,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -1909,8 +2092,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -1918,8 +2105,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -1927,8 +2118,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -1936,8 +2131,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -1945,8 +2144,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -1954,8 +2157,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -1963,14 +2170,22 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>99</v>
       </c>
       <c r="C41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据可视化/)</v>
       </c>
     </row>
   </sheetData>
@@ -1981,20 +2196,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="79.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2004,8 +2220,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -2016,8 +2235,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [分类问题中Sigmoid-与-Softmax-区别](数学知识/分类问题中Sigmoid-与-Softmax-区别.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [分类问题中Sigmoid-与-Softmax-区别](/数学知识/分类问题中Sigmoid-与-Softmax-区别.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -2028,8 +2251,12 @@
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [利用Python枚举所有的排列情况](数学知识/利用Python枚举所有的排列情况.md)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D20" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [利用Python枚举所有的排列情况](/数学知识/利用Python枚举所有的排列情况.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -2040,8 +2267,12 @@
         <f t="shared" si="0"/>
         <v>- [让ChatGPT回答闰年的计算逻辑](数学知识/让ChatGPT回答闰年的计算逻辑.md)</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [让ChatGPT回答闰年的计算逻辑](/数学知识/让ChatGPT回答闰年的计算逻辑.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -2052,8 +2283,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-使用sklearn计算余弦相似度](数学知识/Python-使用sklearn计算余弦相似度.md)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-使用sklearn计算余弦相似度](/数学知识/Python-使用sklearn计算余弦相似度.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2064,8 +2299,12 @@
         <f t="shared" si="0"/>
         <v>- [Python利用枚举法，解决一道面试算法题](数学知识/Python利用枚举法，解决一道面试算法题.md)</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python利用枚举法，解决一道面试算法题](/数学知识/Python利用枚举法，解决一道面试算法题.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -2073,8 +2312,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -2082,8 +2325,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2091,8 +2338,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -2100,8 +2351,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2109,8 +2364,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2118,8 +2377,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -2127,8 +2390,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -2136,8 +2403,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -2145,8 +2416,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -2154,8 +2429,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -2163,8 +2442,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -2172,8 +2455,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -2181,8 +2468,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -2190,8 +2481,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数学知识/)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -2200,7 +2495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -2209,7 +2504,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -2218,7 +2513,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2227,7 +2522,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -2236,7 +2531,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -2245,7 +2540,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -2254,7 +2549,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -2263,7 +2558,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -2272,7 +2567,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -2281,7 +2576,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -2290,7 +2585,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -2388,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2399,20 +2694,24 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="45.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="91.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2423,8 +2722,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [工欲善其事必先利其器](随笔/工欲善其事必先利其器.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [工欲善其事必先利其器](/随笔/工欲善其事必先利其器.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -2435,8 +2738,12 @@
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [吴军老师的《计算之魂》部分重点摘要](随笔/吴军老师的《计算之魂》部分重点摘要.md)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D6" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [吴军老师的《计算之魂》部分重点摘要](/随笔/吴军老师的《计算之魂》部分重点摘要.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -2444,8 +2751,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/随笔/)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -2456,8 +2767,12 @@
         <f t="shared" si="0"/>
         <v>- [从互联网+，到DeepSeek+，新一轮的技术变革](随笔/从互联网+，到DeepSeek+，新一轮的技术变革.md)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [从互联网+，到DeepSeek+，新一轮的技术变革](/随笔/从互联网+，到DeepSeek+，新一轮的技术变革.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2468,8 +2783,12 @@
         <f t="shared" si="0"/>
         <v>- [管理的精髓](随笔/管理的精髓.md)</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>- [管理的精髓](/随笔/管理的精髓.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -2478,7 +2797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2487,7 +2806,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -2496,7 +2815,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -2505,7 +2824,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2514,7 +2833,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -2523,7 +2842,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -2532,7 +2851,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -2541,7 +2860,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -2550,7 +2869,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3049,31 +3368,35 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3084,8 +3407,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [Python中一个构建-web-页面的神奇库-streamlit](Web/Python中一个构建-web-页面的神奇库-streamlit.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Python中一个构建-web-页面的神奇库-streamlit](/Web/Python中一个构建-web-页面的神奇库-streamlit.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -3093,8 +3420,12 @@
         <f t="shared" ref="C3:C16" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D6" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [](/Web/)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -3102,8 +3433,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Web/)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -3111,8 +3446,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Web/)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -3120,8 +3459,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Web/)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -3130,7 +3473,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -3139,7 +3482,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -3148,7 +3491,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -3157,7 +3500,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -3166,7 +3509,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -3175,7 +3518,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -3184,7 +3527,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -3193,7 +3536,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -3202,7 +3545,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -3222,7 +3565,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3389,20 +3732,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3412,8 +3756,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3424,8 +3771,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [Hive---HQL支持的2种查询语句风格，你喜欢哪一种？](Hive/Hive---HQL支持的2种查询语句风格，你喜欢哪一种？.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Hive---HQL支持的2种查询语句风格，你喜欢哪一种？](/Hive/Hive---HQL支持的2种查询语句风格，你喜欢哪一种？.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3436,8 +3787,12 @@
         <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Hive-数据聚合成键值对时，根据值大小进行排序](Hive/Hive-数据聚合成键值对时，根据值大小进行排序.md)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D6" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Hive-数据聚合成键值对时，根据值大小进行排序](/Hive/Hive-数据聚合成键值对时，根据值大小进行排序.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3448,8 +3803,12 @@
         <f t="shared" si="0"/>
         <v>- [Hive-中把一行记录拆分为多行记录](Hive/Hive-中把一行记录拆分为多行记录.md)</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Hive-中把一行记录拆分为多行记录](/Hive/Hive-中把一行记录拆分为多行记录.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3460,8 +3819,12 @@
         <f t="shared" si="0"/>
         <v>- [Hive中的常用函数](Hive/Hive中的常用函数.md)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Hive中的常用函数](/Hive/Hive中的常用函数.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3472,8 +3835,12 @@
         <f t="shared" si="0"/>
         <v>- [Hive-中的各种常用set设置](Hive/Hive-中的各种常用set设置.md)</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Hive-中的各种常用set设置](/Hive/Hive-中的各种常用set设置.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3484,8 +3851,11 @@
         <f t="shared" si="0"/>
         <v>- [Hive中对相邻访问时间进行归并分组](Hive/Hive中对相邻访问时间进行归并分组.md)</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3496,8 +3866,12 @@
         <f t="shared" si="0"/>
         <v>- [Hive中各种日期格式转换方法总结](Hive/Hive中各种日期格式转换方法总结.md)</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" ref="D8:D15" si="2">"- ["&amp;SUBSTITUTE(B8,".md","")&amp;"](/"&amp;A8&amp;"/"&amp;B8&amp;")"</f>
+        <v>- [Hive中各种日期格式转换方法总结](/Hive/Hive中各种日期格式转换方法总结.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3508,35 +3882,62 @@
         <f t="shared" si="0"/>
         <v>- [hadoop-常用命令总结](Hive/hadoop-常用命令总结.md)</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>- [hadoop-常用命令总结](/Hive/hadoop-常用命令总结.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>- [](/Hive/)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>- [](/Hive/)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>- [](/Hive/)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D15" si="3">"- ["&amp;SUBSTITUTE(B14,".md","")&amp;"](/"&amp;A14&amp;"/"&amp;B14&amp;")"</f>
+        <v>- [](/Hive/)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>- [](/Hive/)</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +4091,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3836,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3847,20 +4248,24 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="45.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3871,8 +4276,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [Python-除了结巴分词，还有什么好用的中文分词工具？](NLP/Python-除了结巴分词，还有什么好用的中文分词工具？.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Python-除了结巴分词，还有什么好用的中文分词工具？](/NLP/Python-除了结巴分词，还有什么好用的中文分词工具？.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3883,8 +4292,12 @@
         <f t="shared" ref="C3:C9" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Python调用apiKey试玩ChatGPT](NLP/Python调用apiKey试玩ChatGPT.md)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D15" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Python调用apiKey试玩ChatGPT](/NLP/Python调用apiKey试玩ChatGPT.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3895,8 +4308,12 @@
         <f t="shared" si="0"/>
         <v>- [自然语言处理（NLP）-Bert与Lstm结合](NLP/自然语言处理（NLP）-Bert与Lstm结合.md)</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [自然语言处理（NLP）-Bert与Lstm结合](/NLP/自然语言处理（NLP）-Bert与Lstm结合.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3907,8 +4324,12 @@
         <f t="shared" si="0"/>
         <v>- [基于DeepSeek，构建个人本地RAG知识库](NLP/基于DeepSeek，构建个人本地RAG知识库.md)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [基于DeepSeek，构建个人本地RAG知识库](/NLP/基于DeepSeek，构建个人本地RAG知识库.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3916,8 +4337,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3925,8 +4350,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3934,8 +4363,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3943,35 +4376,63 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/NLP/)</v>
       </c>
     </row>
   </sheetData>
@@ -3982,31 +4443,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="69.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4017,8 +4482,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [NumPy论文都已经登上了Nature，Pythoneer会用了吗？](Python基础库/NumPy论文都已经登上了Nature，Pythoneer会用了吗？.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [NumPy论文都已经登上了Nature，Pythoneer会用了吗？](/Python基础库/NumPy论文都已经登上了Nature，Pythoneer会用了吗？.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4029,8 +4498,12 @@
         <f t="shared" ref="C3:C38" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Python-标准库之pathlib，路径操作](Python基础库/Python-标准库之pathlib，路径操作.md)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D38" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Python-标准库之pathlib，路径操作](/Python基础库/Python-标准库之pathlib，路径操作.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4041,8 +4514,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-标准库heapq，堆数据结构操作详解](Python基础库/Python-标准库heapq，堆数据结构操作详解.md)</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-标准库heapq，堆数据结构操作详解](/Python基础库/Python-标准库heapq，堆数据结构操作详解.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4053,8 +4530,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-基于ssh连接远程Mysql数据库](Python基础库/Python-基于ssh连接远程Mysql数据库.md)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于ssh连接远程Mysql数据库](/Python基础库/Python-基于ssh连接远程Mysql数据库.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4065,8 +4546,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-记录re正则模块，方便后期查找使用](Python基础库/Python-记录re正则模块，方便后期查找使用.md)</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-记录re正则模块，方便后期查找使用](/Python基础库/Python-记录re正则模块，方便后期查找使用.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4077,8 +4562,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-内建模块-bisect，数组二分查找算法](Python基础库/Python-内建模块-bisect，数组二分查找算法.md)</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-内建模块-bisect，数组二分查找算法](/Python基础库/Python-内建模块-bisect，数组二分查找算法.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4089,8 +4578,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-扑克牌发牌游戏](Python基础库/Python-扑克牌发牌游戏.md)</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-扑克牌发牌游戏](/Python基础库/Python-扑克牌发牌游戏.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4101,8 +4594,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-中一个好用的地址解析工具cpca（chinese_province_city_area_mapper）](Python基础库/Python-中一个好用的地址解析工具cpca（chinese_province_city_area_mapper）.md)</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-中一个好用的地址解析工具cpca（chinese_province_city_area_mapper）](/Python基础库/Python-中一个好用的地址解析工具cpca（chinese_province_city_area_mapper）.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4113,8 +4610,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-字典已经是有序的，你知道吗？](Python基础库/Python-字典已经是有序的，你知道吗？.md)</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-字典已经是有序的，你知道吗？](/Python基础库/Python-字典已经是有序的，你知道吗？.md)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4125,8 +4626,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-math模块详解](Python基础库/Python-math模块详解.md)</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-math模块详解](/Python基础库/Python-math模块详解.md)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4137,8 +4642,12 @@
         <f t="shared" si="0"/>
         <v>- [Python利用partial偏函数，生成不同的聚合函数](Python基础库/Python利用partial偏函数，生成不同的聚合函数.md)</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python利用partial偏函数，生成不同的聚合函数](/Python基础库/Python利用partial偏函数，生成不同的聚合函数.md)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4149,8 +4658,12 @@
         <f t="shared" si="0"/>
         <v>- [Python内置的-os-模块常用函数、方法](Python基础库/Python内置的-os-模块常用函数、方法.md)</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python内置的-os-模块常用函数、方法](/Python基础库/Python内置的-os-模块常用函数、方法.md)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4161,8 +4674,12 @@
         <f t="shared" si="0"/>
         <v>- [Python文件打包成exe可执行程序](Python基础库/Python文件打包成exe可执行程序.md)</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python文件打包成exe可执行程序](/Python基础库/Python文件打包成exe可执行程序.md)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4170,8 +4687,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python基础库/)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4182,8 +4703,12 @@
         <f t="shared" si="0"/>
         <v>- [《Python-编程从新手到高手》知识点](Python基础库/《Python-编程从新手到高手》知识点.md)</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>- [《Python-编程从新手到高手》知识点](/Python基础库/《Python-编程从新手到高手》知识点.md)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4194,8 +4719,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-单实例模式详解](Python基础库/Python-单实例模式详解.md)</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-单实例模式详解](/Python基础库/Python-单实例模式详解.md)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -4206,8 +4735,12 @@
         <f t="shared" si="0"/>
         <v>- [Python函数参数：列表作为默认值，一个隐藏的陷阱！](Python基础库/Python函数参数：列表作为默认值，一个隐藏的陷阱！.md)</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python函数参数：列表作为默认值，一个隐藏的陷阱！](/Python基础库/Python函数参数：列表作为默认值，一个隐藏的陷阱！.md)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4218,8 +4751,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-函数参数类型与使用规则详解](Python基础库/Python-函数参数类型与使用规则详解.md)</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-函数参数类型与使用规则详解](/Python基础库/Python-函数参数类型与使用规则详解.md)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4230,8 +4767,12 @@
         <f t="shared" si="0"/>
         <v>- [Rust-是否会重写-Python-解释器与有关的库，替代-C-语言地位？](Python基础库/Rust-是否会重写-Python-解释器与有关的库，替代-C-语言地位？.md)</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Rust-是否会重写-Python-解释器与有关的库，替代-C-语言地位？](/Python基础库/Rust-是否会重写-Python-解释器与有关的库，替代-C-语言地位？.md)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4242,8 +4783,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-3-14-无GIL解释器性能测试：释放多核CPU的并行潜力](Python基础库/Python-3-14-无GIL解释器性能测试：释放多核CPU的并行潜力.md)</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-3-14-无GIL解释器性能测试：释放多核CPU的并行潜力](/Python基础库/Python-3-14-无GIL解释器性能测试：释放多核CPU的并行潜力.md)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4251,8 +4796,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python基础库/)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4263,8 +4812,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-2个好用的装饰器函数](Python基础库/Python-2个好用的装饰器函数.md)</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-2个好用的装饰器函数](/Python基础库/Python-2个好用的装饰器函数.md)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4275,8 +4828,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-collections详解：解锁高效数据结构](Python基础库/Python-collections详解：解锁高效数据结构.md)</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-collections详解：解锁高效数据结构](/Python基础库/Python-collections详解：解锁高效数据结构.md)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -4287,8 +4844,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-标准库之pathlib（二），路径操作](Python基础库/Python-标准库之pathlib（二），路径操作.md)</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-标准库之pathlib（二），路径操作](/Python基础库/Python-标准库之pathlib（二），路径操作.md)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4299,8 +4860,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-基于协程的端口扫描工具](Python基础库/Python-基于协程的端口扫描工具.md)</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于协程的端口扫描工具](/Python基础库/Python-基于协程的端口扫描工具.md)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4311,8 +4876,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-利用-uv-“一键”-快速部署服务](Python基础库/Python-利用-uv-“一键”-快速部署服务.md)</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-利用-uv-“一键”-快速部署服务](/Python基础库/Python-利用-uv-“一键”-快速部署服务.md)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4323,8 +4892,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-迈向强类型化的优雅转变](Python基础库/Python-迈向强类型化的优雅转变.md)</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-迈向强类型化的优雅转变](/Python基础库/Python-迈向强类型化的优雅转变.md)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -4335,8 +4908,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-项目管理新思路：用-uv-Workspace-共享虚拟环境，省时省空间！](Python基础库/Python-项目管理新思路：用-uv-Workspace-共享虚拟环境，省时省空间！.md)</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-项目管理新思路：用-uv-Workspace-共享虚拟环境，省时省空间！](/Python基础库/Python-项目管理新思路：用-uv-Workspace-共享虚拟环境，省时省空间！.md)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -4347,8 +4924,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-新晋包项目工具uv的简单尝试](Python基础库/Python-新晋包项目工具uv的简单尝试.md)</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-新晋包项目工具uv的简单尝试](/Python基础库/Python-新晋包项目工具uv的简单尝试.md)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -4359,8 +4940,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-在指定文件夹安装三方库，并进行加载使用](Python基础库/Python-在指定文件夹安装三方库，并进行加载使用.md)</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-在指定文件夹安装三方库，并进行加载使用](/Python基础库/Python-在指定文件夹安装三方库，并进行加载使用.md)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -4368,8 +4953,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python基础库/)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -4377,8 +4966,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python基础库/)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -4386,8 +4979,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python基础库/)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -4395,8 +4992,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python基础库/)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -4404,8 +5005,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python基础库/)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -4413,14 +5018,22 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python基础库/)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
       <c r="C38" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python基础库/)</v>
       </c>
     </row>
   </sheetData>
@@ -4431,32 +5044,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="80.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="3" max="3" width="56.21875" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -4467,8 +5084,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [对比Excel，利用pandas进行数据分析各种用法](Python数据处理/对比Excel，利用pandas进行数据分析各种用法.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [对比Excel，利用pandas进行数据分析各种用法](/Python数据处理/对比Excel，利用pandas进行数据分析各种用法.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -4476,11 +5097,15 @@
         <v>40</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <f t="shared" ref="C3:C59" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [对csv文件，又get了新的认知](Python数据处理/对csv文件，又get了新的认知.md)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D59" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [对csv文件，又get了新的认知](/Python数据处理/对csv文件，又get了新的认知.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4491,8 +5116,12 @@
         <f t="shared" si="0"/>
         <v>- [对csv文件，又get了新的认知（二）](Python数据处理/对csv文件，又get了新的认知（二）.md)</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [对csv文件，又get了新的认知（二）](/Python数据处理/对csv文件，又get了新的认知（二）.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4503,8 +5132,12 @@
         <f t="shared" si="0"/>
         <v>- [历史双色球数据分析---python](Python数据处理/历史双色球数据分析---python.md)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [历史双色球数据分析---python](/Python数据处理/历史双色球数据分析---python.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -4515,8 +5148,12 @@
         <f t="shared" si="0"/>
         <v>- [利用Python计算两个地理位置之间的中点](Python数据处理/利用Python计算两个地理位置之间的中点.md)</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>- [利用Python计算两个地理位置之间的中点](/Python数据处理/利用Python计算两个地理位置之间的中点.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -4527,8 +5164,12 @@
         <f t="shared" si="0"/>
         <v>- [利用Python模拟Excel数据透视表具有“值显示方式”功能](Python数据处理/利用Python模拟Excel数据透视表具有“值显示方式”功能.md)</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>- [利用Python模拟Excel数据透视表具有“值显示方式”功能](/Python数据处理/利用Python模拟Excel数据透视表具有“值显示方式”功能.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4539,8 +5180,12 @@
         <f t="shared" si="0"/>
         <v>- [像excel透视表一样使用pandas透视函数](Python数据处理/像excel透视表一样使用pandas透视函数.md)</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>- [像excel透视表一样使用pandas透视函数](/Python数据处理/像excel透视表一样使用pandas透视函数.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4551,8 +5196,12 @@
         <f t="shared" si="0"/>
         <v>- [Numpy中的shuffle和permutation区别](Python数据处理/Numpy中的shuffle和permutation区别.md)</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Numpy中的shuffle和permutation区别](/Python数据处理/Numpy中的shuffle和permutation区别.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -4563,8 +5212,12 @@
         <f t="shared" si="0"/>
         <v>- [pandas-错误提醒：FutureWarning--elementwise-comparison-failed;](Python数据处理/pandas-错误提醒：FutureWarning--elementwise-comparison-failed;.md)</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>- [pandas-错误提醒：FutureWarning--elementwise-comparison-failed;](/Python数据处理/pandas-错误提醒：FutureWarning--elementwise-comparison-failed;.md)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -4575,8 +5228,12 @@
         <f t="shared" si="0"/>
         <v>- [Pandas数据处理误区要知其然知其所以然](Python数据处理/Pandas数据处理误区要知其然知其所以然.md)</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Pandas数据处理误区要知其然知其所以然](/Python数据处理/Pandas数据处理误区要知其然知其所以然.md)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -4587,8 +5244,12 @@
         <f t="shared" si="0"/>
         <v>- [Python--Numpy中的范数](Python数据处理/Python--Numpy中的范数.md)</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python--Numpy中的范数](/Python数据处理/Python--Numpy中的范数.md)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4599,8 +5260,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-把csv文件转换为excel文件](Python数据处理/Python-把csv文件转换为excel文件.md)</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-把csv文件转换为excel文件](/Python数据处理/Python-把csv文件转换为excel文件.md)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -4611,8 +5276,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-常用的加解密算法实例应用](Python数据处理/Python-常用的加解密算法实例应用.md)</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-常用的加解密算法实例应用](/Python数据处理/Python-常用的加解密算法实例应用.md)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -4623,8 +5292,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-处理Excel文件为了通用原则，建议用openpyxl库](Python数据处理/Python-处理Excel文件为了通用原则，建议用openpyxl库.md)</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-处理Excel文件为了通用原则，建议用openpyxl库](/Python数据处理/Python-处理Excel文件为了通用原则，建议用openpyxl库.md)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4635,8 +5308,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-多线程，真实使用代码](Python数据处理/Python-多线程，真实使用代码.md)</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-多线程，真实使用代码](/Python数据处理/Python-多线程，真实使用代码.md)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -4647,8 +5324,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-基于datetime库的日期时间数据处理](Python数据处理/Python-基于datetime库的日期时间数据处理.md)</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于datetime库的日期时间数据处理](/Python数据处理/Python-基于datetime库的日期时间数据处理.md)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -4659,8 +5340,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-利用aiohttp异步流式下载文件](Python数据处理/Python-利用aiohttp异步流式下载文件.md)</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-利用aiohttp异步流式下载文件](/Python数据处理/Python-利用aiohttp异步流式下载文件.md)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -4671,8 +5356,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-利用Pandas把数据直接导入Mysql](Python数据处理/Python-利用Pandas把数据直接导入Mysql.md)</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-利用Pandas把数据直接导入Mysql](/Python数据处理/Python-利用Pandas把数据直接导入Mysql.md)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4683,8 +5372,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-利用pandas对数据进行特定排序](Python数据处理/Python-利用pandas对数据进行特定排序.md)</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-利用pandas对数据进行特定排序](/Python数据处理/Python-利用pandas对数据进行特定排序.md)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -4695,8 +5388,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-两个字典如何实现相加？（相同的键，值相加）](Python数据处理/Python-两个字典如何实现相加？（相同的键，值相加）.md)</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-两个字典如何实现相加？（相同的键，值相加）](/Python数据处理/Python-两个字典如何实现相加？（相同的键，值相加）.md)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -4707,8 +5404,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-小知识系列（一）](Python数据处理/Python-小知识系列（一）.md)</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-小知识系列（一）](/Python数据处理/Python-小知识系列（一）.md)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -4719,8 +5420,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-字符串格式化方法总结](Python数据处理/Python-字符串格式化方法总结.md)</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-字符串格式化方法总结](/Python数据处理/Python-字符串格式化方法总结.md)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -4731,8 +5436,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-jupyter-常用语句汇总](Python数据处理/Python-jupyter-常用语句汇总.md)</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-jupyter-常用语句汇总](/Python数据处理/Python-jupyter-常用语句汇总.md)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -4743,8 +5452,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-pandas-2-0-初探](Python数据处理/Python-pandas-2-0-初探.md)</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas-2-0-初探](/Python数据处理/Python-pandas-2-0-初探.md)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -4755,8 +5468,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-pandas-里面的数据类型坑，astype要慎用](Python数据处理/Python-pandas-里面的数据类型坑，astype要慎用.md)</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas-里面的数据类型坑，astype要慎用](/Python数据处理/Python-pandas-里面的数据类型坑，astype要慎用.md)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -4767,8 +5484,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-pandas-数据筛选与赋值升级版详解](Python数据处理/Python-pandas-数据筛选与赋值升级版详解.md)</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas-数据筛选与赋值升级版详解](/Python数据处理/Python-pandas-数据筛选与赋值升级版详解.md)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4779,8 +5500,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-pandas-数据无法正常分列](Python数据处理/Python-pandas-数据无法正常分列.md)</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas-数据无法正常分列](/Python数据处理/Python-pandas-数据无法正常分列.md)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -4791,8 +5516,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-pandas-str-replace-不起作用](Python数据处理/Python-pandas-str-replace-不起作用.md)</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas-str-replace-不起作用](/Python数据处理/Python-pandas-str-replace-不起作用.md)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4803,8 +5532,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-pandas遍历行数据的2种方法](Python数据处理/Python-pandas遍历行数据的2种方法.md)</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas遍历行数据的2种方法](/Python数据处理/Python-pandas遍历行数据的2种方法.md)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -4815,8 +5548,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-pandas数据分列，分割符号&amp;固定宽度](Python数据处理/Python-pandas数据分列，分割符号&amp;固定宽度.md)</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas数据分列，分割符号&amp;固定宽度](/Python数据处理/Python-pandas数据分列，分割符号&amp;固定宽度.md)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4827,8 +5564,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-pandas数据计数函数value_counts](Python数据处理/Python-pandas数据计数函数value_counts.md)</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas数据计数函数value_counts](/Python数据处理/Python-pandas数据计数函数value_counts.md)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -4839,8 +5580,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题](Python数据处理/Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题.md)</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题](/Python数据处理/Python-pandas在读取csv文件时（linux与windows之间传输），数据行数不一致的问题.md)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4851,8 +5596,12 @@
         <f t="shared" si="0"/>
         <v>- [Python常用语句汇总](Python数据处理/Python常用语句汇总.md)</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python常用语句汇总](/Python数据处理/Python常用语句汇总.md)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4863,8 +5612,12 @@
         <f t="shared" si="0"/>
         <v>- [Python加载txt数据乱码问题升级版解决方法](Python数据处理/Python加载txt数据乱码问题升级版解决方法.md)</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python加载txt数据乱码问题升级版解决方法](/Python数据处理/Python加载txt数据乱码问题升级版解决方法.md)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -4875,8 +5628,12 @@
         <f t="shared" si="0"/>
         <v>- [Python数据处理中-pd-concat-与-pd-merge-区别](Python数据处理/Python数据处理中-pd-concat-与-pd-merge-区别.md)</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python数据处理中-pd-concat-与-pd-merge-区别](/Python数据处理/Python数据处理中-pd-concat-与-pd-merge-区别.md)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4887,8 +5644,12 @@
         <f t="shared" si="0"/>
         <v>- [Python数据预处理中One-Hot编码的方法](Python数据处理/Python数据预处理中One-Hot编码的方法.md)</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python数据预处理中One-Hot编码的方法](/Python数据处理/Python数据预处理中One-Hot编码的方法.md)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -4899,8 +5660,12 @@
         <f t="shared" si="0"/>
         <v>- [Python通过修改系统注册表，强制设置Excel宏信任级别](Python数据处理/Python通过修改系统注册表，强制设置Excel宏信任级别.md)</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python通过修改系统注册表，强制设置Excel宏信任级别](/Python数据处理/Python通过修改系统注册表，强制设置Excel宏信任级别.md)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4911,8 +5676,12 @@
         <f t="shared" si="0"/>
         <v>- [Python用xlwings库处理Excel](Python数据处理/Python用xlwings库处理Excel.md)</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python用xlwings库处理Excel](/Python数据处理/Python用xlwings库处理Excel.md)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4923,8 +5692,12 @@
         <f t="shared" si="0"/>
         <v>- [Python中的Lambda匿名函数](Python数据处理/Python中的Lambda匿名函数.md)</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python中的Lambda匿名函数](/Python数据处理/Python中的Lambda匿名函数.md)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -4934,6 +5707,259 @@
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>- [Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？](Python数据处理/Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？.md)</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？](/Python数据处理/Pythonner还在为了练习Numpy而没有真实数据而烦恼吗？.md)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-pandas中重排列与列重名](Python数据处理/Python-pandas中重排列与列重名.md)</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-pandas中重排列与列重名](/Python数据处理/Python-pandas中重排列与列重名.md)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-Pandas导出Excel时保留URL为纯文本的完美方案](Python数据处理/Python-Pandas导出Excel时保留URL为纯文本的完美方案.md)</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-Pandas导出Excel时保留URL为纯文本的完美方案](/Python数据处理/Python-Pandas导出Excel时保留URL为纯文本的完美方案.md)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于hdfs路径统计hive表存储信息](Python数据处理/Python-基于hdfs路径统计hive表存储信息.md)</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于hdfs路径统计hive表存储信息](/Python数据处理/Python-基于hdfs路径统计hive表存储信息.md)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于OpenList接口下载夸克网盘资源](Python数据处理/Python-基于OpenList接口下载夸克网盘资源.md)</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于OpenList接口下载夸克网盘资源](/Python数据处理/Python-基于OpenList接口下载夸克网盘资源.md)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-基于pyhive库操作hive](Python数据处理/Python-基于pyhive库操作hive.md)</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-基于pyhive库操作hive](/Python数据处理/Python-基于pyhive库操作hive.md)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>- [Python-小知识系列-2](Python数据处理/Python-小知识系列-2.md)</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-小知识系列-2](/Python数据处理/Python-小知识系列-2.md)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/Python数据处理/)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C59" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](//)</v>
       </c>
     </row>
   </sheetData>
@@ -5372,10 +6398,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5383,9 +6409,10 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="45.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="96.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5395,8 +6422,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -5407,8 +6437,12 @@
         <f>"- ["&amp;LEFT(B2,LEN(B2)-3)&amp;"]("&amp;A2&amp;"/"&amp;B2&amp;")"</f>
         <v>- [Python-利用协程采集想看的《人世间》下载地址](数据采集/Python-利用协程采集想看的《人世间》下载地址.md)</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>"- ["&amp;SUBSTITUTE(B2,".md","")&amp;"](/"&amp;A2&amp;"/"&amp;B2&amp;")"</f>
+        <v>- [Python-利用协程采集想看的《人世间》下载地址](/数据采集/Python-利用协程采集想看的《人世间》下载地址.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -5419,8 +6453,12 @@
         <f t="shared" ref="C3:C41" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Python-中一个好用的股票开源库akshare](数据采集/Python-中一个好用的股票开源库akshare.md)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <v>- [Python-中一个好用的股票开源库akshare](/数据采集/Python-中一个好用的股票开源库akshare.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +6469,12 @@
         <f t="shared" si="0"/>
         <v>- [Python-利用协程整合IPTV直播源](数据采集/Python-利用协程整合IPTV直播源.md)</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>- [Python-利用协程整合IPTV直播源](/数据采集/Python-利用协程整合IPTV直播源.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -5440,8 +6482,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>- [](/数据采集/)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -5450,7 +6496,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -5459,7 +6505,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -5468,7 +6514,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -5477,7 +6523,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -5486,7 +6532,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -5495,7 +6541,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -5504,7 +6550,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -5513,7 +6559,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -5522,7 +6568,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -5531,7 +6577,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>

--- a/src/文章列表.xlsx
+++ b/src/文章列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="916" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7530" tabRatio="916" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="polars-学习" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="175">
   <si>
     <t>md文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,6 +644,14 @@
   </si>
   <si>
     <t>Python-pandas中重排列与列重名.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加日期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20260204-Python-装饰器的灵活实现：带参数与不带参数.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +659,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,13 +681,34 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -696,12 +725,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3927,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14:D15" si="3">"- ["&amp;SUBSTITUTE(B14,".md","")&amp;"](/"&amp;A14&amp;"/"&amp;B14&amp;")"</f>
+        <f t="shared" ref="D14" si="3">"- ["&amp;SUBSTITUTE(B14,".md","")&amp;"](/"&amp;A14&amp;"/"&amp;B14&amp;")"</f>
         <v>- [](/Hive/)</v>
       </c>
     </row>
@@ -4443,17 +4478,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" customWidth="1"/>
+    <col min="3" max="3" width="88.5546875" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4495,11 +4531,11 @@
         <v>28</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C38" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <f t="shared" ref="C3:C31" si="0">"- ["&amp;LEFT(B3,LEN(B3)-3)&amp;"]("&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Python-标准库之pathlib，路径操作](Python基础库/Python-标准库之pathlib，路径操作.md)</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D38" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
+        <f t="shared" ref="D3:D31" si="1">"- ["&amp;SUBSTITUTE(B3,".md","")&amp;"](/"&amp;A3&amp;"/"&amp;B3&amp;")"</f>
         <v>- [Python-标准库之pathlib，路径操作](/Python基础库/Python-标准库之pathlib，路径操作.md)</v>
       </c>
     </row>
@@ -4945,43 +4981,25 @@
         <v>- [Python-在指定文件夹安装三方库，并进行加载使用](/Python基础库/Python-在指定文件夹安装三方库，并进行加载使用.md)</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>- [](/Python基础库/)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>- [](/Python基础库/)</v>
+    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="str">
+        <f>"- ["&amp;MID(B34,10,LEN(B34)-12)&amp;"]("&amp;A34&amp;"/"&amp;B34&amp;")"</f>
+        <v>- [Python-装饰器的灵活实现：带参数与不带参数](Python基础库/20260204-Python-装饰器的灵活实现：带参数与不带参数.md)</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>- [](/Python基础库/)</v>
+        <f>"- ["&amp;MID(B34,10,LEN(B34)-12)&amp;"](/"&amp;A34&amp;"/"&amp;B34&amp;")"</f>
+        <v>- [Python-装饰器的灵活实现：带参数与不带参数](/Python基础库/20260204-Python-装饰器的灵活实现：带参数与不带参数.md)</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -4989,12 +5007,12 @@
         <v>25</v>
       </c>
       <c r="C35" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>- [](/Python基础库/)</v>
+        <f t="shared" ref="C35:C40" si="2">"- ["&amp;MID(B35,10,LEN(B35)-12)&amp;"]("&amp;A35&amp;"/"&amp;B35&amp;")"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" t="e">
+        <f t="shared" ref="D35:D40" si="3">"- ["&amp;MID(B35,10,LEN(B35)-12)&amp;"](/"&amp;A35&amp;"/"&amp;B35&amp;")"</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5002,12 +5020,12 @@
         <v>25</v>
       </c>
       <c r="C36" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>- [](/Python基础库/)</v>
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5015,12 +5033,12 @@
         <v>25</v>
       </c>
       <c r="C37" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>- [](/Python基础库/)</v>
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5028,17 +5046,44 @@
         <v>25</v>
       </c>
       <c r="C38" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>- [](/Python基础库/)</v>
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D38" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5046,7 +5091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
